--- a/tables/monthly_tables/detrended_svd/pc_timeseries.xlsx
+++ b/tables/monthly_tables/detrended_svd/pc_timeseries.xlsx
@@ -410,464 +410,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.217975778138078</v>
+        <v>-1.47673759326463</v>
       </c>
       <c r="B2">
-        <v>1.616453356863758</v>
+        <v>0.0405481520607939</v>
       </c>
       <c r="C2">
-        <v>0.5212264204317785</v>
+        <v>-1.286522278821255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.227106622107757</v>
+        <v>-1.24236178428795</v>
       </c>
       <c r="B3">
-        <v>-0.8087568386163885</v>
+        <v>-0.01795110231220841</v>
       </c>
       <c r="C3">
-        <v>0.2401121880883351</v>
+        <v>-0.5913948588542338</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.106269473567422</v>
+        <v>1.186202578211147</v>
       </c>
       <c r="B4">
-        <v>-0.9365536812715268</v>
+        <v>1.509600775417238</v>
       </c>
       <c r="C4">
-        <v>-1.988361441406474</v>
+        <v>1.25020921042292</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.267083947224692</v>
+        <v>-1.361231273501796</v>
       </c>
       <c r="B5">
-        <v>1.17738667422461</v>
+        <v>0.6319395040586322</v>
       </c>
       <c r="C5">
-        <v>-0.229325985871116</v>
+        <v>-0.9091261257582002</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.185755126213157</v>
+        <v>1.169010059616794</v>
       </c>
       <c r="B6">
-        <v>0.4770029895764372</v>
+        <v>-0.8957105461187737</v>
       </c>
       <c r="C6">
-        <v>1.087443784421346</v>
+        <v>-0.3616136751810231</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.06067980624255546</v>
+        <v>0.1526605635382783</v>
       </c>
       <c r="B7">
-        <v>0.7839373353024436</v>
+        <v>0.4075213805041238</v>
       </c>
       <c r="C7">
-        <v>-0.2472341073098094</v>
+        <v>0.9863658118767996</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.39208488984264</v>
+        <v>-1.456129230713969</v>
       </c>
       <c r="B8">
-        <v>0.7078897943514098</v>
+        <v>0.6094190298044705</v>
       </c>
       <c r="C8">
-        <v>-0.1723453676088954</v>
+        <v>-1.693965205150123</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.5497181339840973</v>
+        <v>-0.5495406076258034</v>
       </c>
       <c r="B9">
-        <v>-1.781908688616014</v>
+        <v>-1.29232032953439</v>
       </c>
       <c r="C9">
-        <v>0.5565234493512584</v>
+        <v>1.298856288071458</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.344853721127634</v>
+        <v>-1.334627609769665</v>
       </c>
       <c r="B10">
-        <v>-1.077529480414076</v>
+        <v>-0.3849189182571847</v>
       </c>
       <c r="C10">
-        <v>0.00081697433614811</v>
+        <v>0.9087112923911551</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.168188119887826</v>
+        <v>1.14618830520667</v>
       </c>
       <c r="B11">
-        <v>1.166298679783863</v>
+        <v>-0.1444064966000623</v>
       </c>
       <c r="C11">
-        <v>0.6095899014203608</v>
+        <v>-0.8720579957033547</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.783993054656612</v>
+        <v>1.738720208916116</v>
       </c>
       <c r="B12">
-        <v>0.1991103389383957</v>
+        <v>-0.9865706873212486</v>
       </c>
       <c r="C12">
-        <v>1.194606966559672</v>
+        <v>-0.7399296624509577</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.24909050851877</v>
+        <v>1.266418233150879</v>
       </c>
       <c r="B13">
-        <v>0.3811755161308028</v>
+        <v>-0.5916931247303341</v>
       </c>
       <c r="C13">
-        <v>0.8498292259278565</v>
+        <v>-0.4990182876527867</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.250791049443491</v>
+        <v>1.329022849154255</v>
       </c>
       <c r="B14">
-        <v>-1.205881186210742</v>
+        <v>0.7298179691372734</v>
       </c>
       <c r="C14">
-        <v>-1.163610006794691</v>
+        <v>-0.1877524781949186</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.6337843331974624</v>
+        <v>0.5812455289273873</v>
       </c>
       <c r="B15">
-        <v>-1.170190688085841</v>
+        <v>-0.1902617060002454</v>
       </c>
       <c r="C15">
-        <v>0.06607337827090946</v>
+        <v>-0.3644147055614663</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.106767071091284</v>
+        <v>1.099850279866945</v>
       </c>
       <c r="B16">
-        <v>0.8885984069271134</v>
+        <v>-0.5381992667103864</v>
       </c>
       <c r="C16">
-        <v>0.8845069403483534</v>
+        <v>-0.660639798347324</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.6038894771663348</v>
+        <v>0.7339537761055994</v>
       </c>
       <c r="B17">
-        <v>0.1996281134677461</v>
+        <v>1.207386207046187</v>
       </c>
       <c r="C17">
-        <v>-1.566370899202913</v>
+        <v>1.049048497186871</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.3218050566289051</v>
+        <v>-0.1500259648408791</v>
       </c>
       <c r="B18">
-        <v>0.128072974172811</v>
+        <v>-1.562078922551692</v>
       </c>
       <c r="C18">
-        <v>1.663826800688439</v>
+        <v>0.6993283745828865</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.5499289466609765</v>
+        <v>-0.3545801515675595</v>
       </c>
       <c r="B19">
-        <v>0.1420102950618985</v>
+        <v>-0.1442287377409394</v>
       </c>
       <c r="C19">
-        <v>-0.2280425059815576</v>
+        <v>1.912590481327737</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.243357751402612</v>
+        <v>-1.211409081825397</v>
       </c>
       <c r="B20">
-        <v>-1.38011638095131</v>
+        <v>0.1738230152248293</v>
       </c>
       <c r="C20">
-        <v>-0.5783553621039162</v>
+        <v>1.098964003483938</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.219749393651678</v>
+        <v>1.119197023836207</v>
       </c>
       <c r="B21">
-        <v>-1.291285283729249</v>
+        <v>-0.6701942409526118</v>
       </c>
       <c r="C21">
-        <v>0.368323186224</v>
+        <v>-0.2980842930190787</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.5997734904333692</v>
+        <v>0.7774139434297223</v>
       </c>
       <c r="B22">
-        <v>-0.2681832210206693</v>
+        <v>-0.674367494475555</v>
       </c>
       <c r="C22">
-        <v>0.3089491952021856</v>
+        <v>1.902126477137879</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.4482073432074204</v>
+        <v>-0.3468580664767823</v>
       </c>
       <c r="B23">
-        <v>0.5626007501601186</v>
+        <v>-0.1855805075690544</v>
       </c>
       <c r="C23">
-        <v>0.208165863840711</v>
+        <v>0.941115305761577</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.1831031819018143</v>
+        <v>0.3226590340219276</v>
       </c>
       <c r="B24">
-        <v>0.654010252179256</v>
+        <v>1.72029653865386</v>
       </c>
       <c r="C24">
-        <v>-1.776051847816579</v>
+        <v>0.8930424832888365</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.07705853255946289</v>
+        <v>-0.2695619164012596</v>
       </c>
       <c r="B25">
-        <v>-1.261216549895648</v>
+        <v>-1.875476711412183</v>
       </c>
       <c r="C25">
-        <v>1.443829438976848</v>
+        <v>-0.2347446000720472</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.5918039910941766</v>
+        <v>-0.691439972096154</v>
       </c>
       <c r="B26">
-        <v>-0.2813439480883351</v>
+        <v>0.7984884242020092</v>
       </c>
       <c r="C26">
-        <v>-0.8119234448836071</v>
+        <v>-0.9864649275736297</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.7222766836197099</v>
+        <v>-0.649529943136305</v>
       </c>
       <c r="B27">
-        <v>-1.090893548126086</v>
+        <v>-0.9749426001916536</v>
       </c>
       <c r="C27">
-        <v>0.6754466551033353</v>
+        <v>1.229868322063935</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.830544098659276</v>
+        <v>0.8366160374593907</v>
       </c>
       <c r="B28">
-        <v>0.7058714326894199</v>
+        <v>1.327872025690744</v>
       </c>
       <c r="C28">
-        <v>-1.21011624986247</v>
+        <v>-0.1472519697858629</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.2798543509569391</v>
+        <v>-0.2642775955961424</v>
       </c>
       <c r="B29">
-        <v>0.8301751996800243</v>
+        <v>-0.7843385635155085</v>
       </c>
       <c r="C29">
-        <v>1.336161407663402</v>
+        <v>-2.034168607142303</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.147789090144752</v>
+        <v>1.144908764667592</v>
       </c>
       <c r="B30">
-        <v>0.8515502124789265</v>
+        <v>1.338831750855255</v>
       </c>
       <c r="C30">
-        <v>-1.096472061770315</v>
+        <v>-0.3568010393516332</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.521692120224531</v>
+        <v>1.07608572056393</v>
       </c>
       <c r="B31">
-        <v>0.8254429381404844</v>
+        <v>-0.1991923142893204</v>
       </c>
       <c r="C31">
-        <v>0.7708975297096526</v>
+        <v>-2.397809492066775</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.035497655752709</v>
+        <v>-1.157721731562301</v>
       </c>
       <c r="B32">
-        <v>-1.033943653395662</v>
+        <v>0.2166016959786063</v>
       </c>
       <c r="C32">
-        <v>-0.2907998032678802</v>
+        <v>-0.7523014175957259</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.597429813837934</v>
+        <v>-1.563932556496225</v>
       </c>
       <c r="B33">
-        <v>1.167182697513808</v>
+        <v>1.277010877104011</v>
       </c>
       <c r="C33">
-        <v>-0.9159467259124469</v>
+        <v>0.1136576514210665</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.5203032153769158</v>
+        <v>-0.4859943173971958</v>
       </c>
       <c r="B34">
-        <v>1.401370571719854</v>
+        <v>1.411694881054663</v>
       </c>
       <c r="C34">
-        <v>-1.03837704517343</v>
+        <v>0.4247145069166002</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.5454650605853839</v>
+        <v>0.6061473178853917</v>
       </c>
       <c r="B35">
-        <v>0.3959668577822495</v>
+        <v>-1.542074694246868</v>
       </c>
       <c r="C35">
-        <v>1.679606422921262</v>
+        <v>-0.7311146444763764</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.577724401606726</v>
+        <v>-1.481662134634058</v>
       </c>
       <c r="B36">
-        <v>-0.3510655194922142</v>
+        <v>0.628778034364776</v>
       </c>
       <c r="C36">
-        <v>-0.5719575763882393</v>
+        <v>-0.6897512059016847</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.02676987478606018</v>
+        <v>-0.1535168447053451</v>
       </c>
       <c r="B37">
-        <v>-1.276580713244379</v>
+        <v>0.6633049115768148</v>
       </c>
       <c r="C37">
-        <v>-1.132206517082807</v>
+        <v>-0.3802644724553335</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.2396660997288277</v>
+        <v>-0.4452674903548114</v>
       </c>
       <c r="B38">
-        <v>-1.402009529643992</v>
+        <v>-0.5100437233845183</v>
       </c>
       <c r="C38">
-        <v>-0.3700301379152841</v>
+        <v>1.053254714398641</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.6483359099697739</v>
+        <v>-0.5322394125962114</v>
       </c>
       <c r="B39">
-        <v>1.419683244135311</v>
+        <v>0.8860028293040451</v>
       </c>
       <c r="C39">
-        <v>-0.3661278628534196</v>
+        <v>0.5529107724177482</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.142543105946844</v>
+        <v>-1.116169965870982</v>
       </c>
       <c r="B40">
-        <v>0.881030122149647</v>
+        <v>-1.413825537188721</v>
       </c>
       <c r="C40">
-        <v>1.669221203288127</v>
+        <v>-0.1648624207420554</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.3981475658165117</v>
+        <v>0.5615757424574706</v>
       </c>
       <c r="B41">
-        <v>1.362929337957647</v>
+        <v>1.641797224033179</v>
       </c>
       <c r="C41">
-        <v>-1.188836522038461</v>
+        <v>-0.4012103045909494</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.313289124781776</v>
+        <v>-0.282144943105541</v>
       </c>
       <c r="B42">
-        <v>-1.409165803970017</v>
+        <v>-2.009483792184176</v>
       </c>
       <c r="C42">
-        <v>1.609483976140129</v>
+        <v>0.6940940217507195</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.739202928940436</v>
+        <v>1.729084220811258</v>
       </c>
       <c r="B43">
-        <v>-0.8987533766158841</v>
+        <v>0.3671247912161243</v>
       </c>
       <c r="C43">
-        <v>-0.8021494376697984</v>
+        <v>0.7324062519483296</v>
       </c>
     </row>
   </sheetData>
@@ -896,464 +896,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.01389937112995078</v>
+        <v>0.1205897851118042</v>
       </c>
       <c r="B2">
-        <v>-1.47902424395878</v>
+        <v>-0.2386284678681103</v>
       </c>
       <c r="C2">
-        <v>0.9068001428374571</v>
+        <v>1.893420642948804</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2305829765013896</v>
+        <v>0.05267158821184573</v>
       </c>
       <c r="B3">
-        <v>-1.263564100080837</v>
+        <v>-0.05425670570694483</v>
       </c>
       <c r="C3">
-        <v>0.7828718781240819</v>
+        <v>2.242484346192291</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.2922358518733611</v>
+        <v>0.4728698237283341</v>
       </c>
       <c r="B4">
-        <v>0.4926354349872966</v>
+        <v>0.1890250789829395</v>
       </c>
       <c r="C4">
-        <v>-0.691943751462672</v>
+        <v>-0.2346253927322408</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.47688270228077</v>
+        <v>1.652260688208512</v>
       </c>
       <c r="B5">
-        <v>-1.065763401161119</v>
+        <v>0.5386606172432132</v>
       </c>
       <c r="C5">
-        <v>0.103785779192074</v>
+        <v>-0.06181902129265505</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6482310142645182</v>
+        <v>-0.8065314030825423</v>
       </c>
       <c r="B6">
-        <v>-0.1553200000207916</v>
+        <v>1.078421862129197</v>
       </c>
       <c r="C6">
-        <v>-1.59068895141639</v>
+        <v>-0.4211924137910905</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.09872552670345552</v>
+        <v>0.1285169448840962</v>
       </c>
       <c r="B7">
-        <v>-1.946326491910954</v>
+        <v>0.8242445645949908</v>
       </c>
       <c r="C7">
-        <v>-0.3330172642867643</v>
+        <v>2.07167416959365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.33426211867303</v>
+        <v>1.441000212437162</v>
       </c>
       <c r="B8">
-        <v>0.05257976618519909</v>
+        <v>1.369371059741402</v>
       </c>
       <c r="C8">
-        <v>-1.239931220281125</v>
+        <v>-0.8650199197757246</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.2574547461204161</v>
+        <v>0.009344154461151465</v>
       </c>
       <c r="B9">
-        <v>2.468950504991408</v>
+        <v>-1.057284364848977</v>
       </c>
       <c r="C9">
-        <v>0.07811462264167332</v>
+        <v>-1.817508751396188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.058829802554805</v>
+        <v>-1.062665450811231</v>
       </c>
       <c r="B10">
-        <v>0.3546583111784177</v>
+        <v>-0.6827916996930516</v>
       </c>
       <c r="C10">
-        <v>0.5302014851146716</v>
+        <v>0.3007353052989599</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.477271737140421</v>
+        <v>-1.026183749438734</v>
       </c>
       <c r="B11">
-        <v>0.2829693324479938</v>
+        <v>-2.128444354183783</v>
       </c>
       <c r="C11">
-        <v>1.717621743861523</v>
+        <v>0.1818524507028535</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.01597725475219338</v>
+        <v>-0.3573326057949862</v>
       </c>
       <c r="B12">
-        <v>-0.3194276929378819</v>
+        <v>1.069831138908204</v>
       </c>
       <c r="C12">
-        <v>-1.083857777667553</v>
+        <v>-0.9159887435790313</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.2432478390687752</v>
+        <v>-0.3642230717685401</v>
       </c>
       <c r="B13">
-        <v>0.7763316893952259</v>
+        <v>-1.12934378712727</v>
       </c>
       <c r="C13">
-        <v>0.9785979853198514</v>
+        <v>-1.349900721680649</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.6163372737426072</v>
+        <v>-0.5096498635348179</v>
       </c>
       <c r="B14">
-        <v>0.8124284284914918</v>
+        <v>-1.465142745782468</v>
       </c>
       <c r="C14">
-        <v>1.204503252618444</v>
+        <v>0.6637095261996349</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.222655964257859</v>
+        <v>-0.04278321305096972</v>
       </c>
       <c r="B15">
-        <v>2.592781456281557</v>
+        <v>-1.485485904339881</v>
       </c>
       <c r="C15">
-        <v>0.5187606989453249</v>
+        <v>-1.995204027599835</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-1.39722113458091</v>
+        <v>1.360363780176089</v>
       </c>
       <c r="B16">
-        <v>-0.5898062754285288</v>
+        <v>-0.2554140047611739</v>
       </c>
       <c r="C16">
-        <v>0.9362533067238906</v>
+        <v>-0.1397178989248325</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.785024198895148</v>
+        <v>-1.623694133983045</v>
       </c>
       <c r="B17">
-        <v>0.121408029978442</v>
+        <v>-0.800732138058881</v>
       </c>
       <c r="C17">
-        <v>0.3878820362321166</v>
+        <v>0.06935624971429094</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.2932964435240726</v>
+        <v>0.2324663158417364</v>
       </c>
       <c r="B18">
-        <v>0.3822301032446356</v>
+        <v>-0.9412387496170861</v>
       </c>
       <c r="C18">
-        <v>0.9318595676628652</v>
+        <v>-1.136719804684742</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.7162145252789427</v>
+        <v>0.4799314856531224</v>
       </c>
       <c r="B19">
-        <v>1.847878191239512</v>
+        <v>-0.1672225917692307</v>
       </c>
       <c r="C19">
-        <v>-0.7389863286636448</v>
+        <v>-1.745618473044212</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.218426261848905</v>
+        <v>-0.1966722873239446</v>
       </c>
       <c r="B20">
-        <v>1.020799585872424</v>
+        <v>-0.5081023224580978</v>
       </c>
       <c r="C20">
-        <v>0.1834048070317986</v>
+        <v>-0.1993287099225543</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.002497305338705</v>
+        <v>0.1370517869011769</v>
       </c>
       <c r="B21">
-        <v>0.8188562601964408</v>
+        <v>1.85276566441297</v>
       </c>
       <c r="C21">
-        <v>-2.139897565010447</v>
+        <v>-1.410481765621444</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4597098105035988</v>
+        <v>-0.7222280750549747</v>
       </c>
       <c r="B22">
-        <v>-0.8041595020841538</v>
+        <v>1.800750925030203</v>
       </c>
       <c r="C22">
-        <v>-1.641020020643291</v>
+        <v>0.4451897105716698</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8157605201858883</v>
+        <v>-0.9219035670943364</v>
       </c>
       <c r="B23">
-        <v>-0.2822488643408954</v>
+        <v>1.238812978624013</v>
       </c>
       <c r="C23">
-        <v>-1.425484758159103</v>
+        <v>-0.6721553555987478</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.3916094433079202</v>
+        <v>0.2814031631598275</v>
       </c>
       <c r="B24">
-        <v>-0.5132451696981875</v>
+        <v>-0.0162225809062628</v>
       </c>
       <c r="C24">
-        <v>0.6181922856860819</v>
+        <v>-0.3818628485718331</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.921730398520735</v>
+        <v>1.77694900542844</v>
       </c>
       <c r="B25">
-        <v>-0.0773898021856621</v>
+        <v>-0.4563492667479824</v>
       </c>
       <c r="C25">
-        <v>0.6414782028135002</v>
+        <v>0.5175015471582316</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.1004730215360249</v>
+        <v>0.4229276909826594</v>
       </c>
       <c r="B26">
-        <v>-0.4908539218379893</v>
+        <v>-0.5918741627986084</v>
       </c>
       <c r="C26">
-        <v>1.065280076585736</v>
+        <v>1.539196920786745</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.8503632304624721</v>
+        <v>0.9894557945398184</v>
       </c>
       <c r="B27">
-        <v>-0.8379919284418322</v>
+        <v>-0.2324328312750422</v>
       </c>
       <c r="C27">
-        <v>0.9352158747931356</v>
+        <v>0.6452268130354635</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7303762025303648</v>
+        <v>-1.126733697269952</v>
       </c>
       <c r="B28">
-        <v>-0.5367214470014073</v>
+        <v>1.457277072807647</v>
       </c>
       <c r="C28">
-        <v>-1.247533384939135</v>
+        <v>0.316711370250413</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.222169204916858</v>
+        <v>1.496114342657023</v>
       </c>
       <c r="B29">
-        <v>-1.856160715068142</v>
+        <v>0.3057673940862943</v>
       </c>
       <c r="C29">
-        <v>0.8077117041795481</v>
+        <v>1.364513535567401</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.876958862685182</v>
+        <v>-2.150385633516057</v>
       </c>
       <c r="B30">
-        <v>0.07516091082535731</v>
+        <v>0.6998535446053321</v>
       </c>
       <c r="C30">
-        <v>-1.075480838941961</v>
+        <v>-0.2470559204574049</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.5609333423158245</v>
+        <v>-0.9104853425224515</v>
       </c>
       <c r="B31">
-        <v>1.351349495097134</v>
+        <v>0.9808440254601071</v>
       </c>
       <c r="C31">
-        <v>-1.162657763681031</v>
+        <v>-0.9503563062741891</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.09707023652359763</v>
+        <v>0.6382033291673329</v>
       </c>
       <c r="B32">
-        <v>0.5934104818702928</v>
+        <v>-1.406727873965337</v>
       </c>
       <c r="C32">
-        <v>1.551976151365031</v>
+        <v>0.2909632374933915</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.8401680642355291</v>
+        <v>-0.962624861989567</v>
       </c>
       <c r="B33">
-        <v>-0.3783663743931322</v>
+        <v>1.171392448560394</v>
       </c>
       <c r="C33">
-        <v>-1.317251548249834</v>
+        <v>0.3966981968599728</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.872634958786854</v>
+        <v>-1.920026496685301</v>
       </c>
       <c r="B34">
-        <v>-0.1369954032568377</v>
+        <v>-0.09363268617933947</v>
       </c>
       <c r="C34">
-        <v>0.1756450683050794</v>
+        <v>0.3087216236373145</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.485383858140993</v>
+        <v>-1.239044312993495</v>
       </c>
       <c r="B35">
-        <v>-1.100252550950992</v>
+        <v>0.2237044594480644</v>
       </c>
       <c r="C35">
-        <v>-0.08365550213970184</v>
+        <v>1.353890081548494</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.649590283961117</v>
+        <v>1.391198108641667</v>
       </c>
       <c r="B36">
-        <v>-0.2697295215942169</v>
+        <v>0.4357224986793362</v>
       </c>
       <c r="C36">
-        <v>-0.2594909545802341</v>
+        <v>0.8712263200262299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.475038807475324</v>
+        <v>1.507847957615212</v>
       </c>
       <c r="B37">
-        <v>-0.266573578512772</v>
+        <v>0.9715294509513364</v>
       </c>
       <c r="C37">
-        <v>-0.8866585458951692</v>
+        <v>-0.5567771003865821</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.3082608722335</v>
+        <v>1.183516931566371</v>
       </c>
       <c r="B38">
-        <v>0.7766763134045092</v>
+        <v>-0.2148157882802269</v>
       </c>
       <c r="C38">
-        <v>0.4727690645920246</v>
+        <v>-0.871071602405653</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3296225833366588</v>
+        <v>0.3025017213971363</v>
       </c>
       <c r="B39">
-        <v>-1.325198707627553</v>
+        <v>0.2011792713493037</v>
       </c>
       <c r="C39">
-        <v>0.03522879753188203</v>
+        <v>0.4069305723455221</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3124263242598939</v>
+        <v>-0.3779007684840741</v>
       </c>
       <c r="B40">
-        <v>-0.6576731862687933</v>
+        <v>0.9271956264739473</v>
       </c>
       <c r="C40">
-        <v>-0.5872529420895362</v>
+        <v>-0.1801351184051299</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.332037761339197</v>
+        <v>-0.9506372401027464</v>
       </c>
       <c r="B41">
-        <v>0.3468585624429044</v>
+        <v>-2.014390644058991</v>
       </c>
       <c r="C41">
-        <v>1.830484802260444</v>
+        <v>0.4599435516248118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.5083342516724338</v>
+        <v>0.5323782541870042</v>
       </c>
       <c r="B42">
-        <v>0.6659700989269091</v>
+        <v>-0.4562060503723911</v>
       </c>
       <c r="C42">
-        <v>-0.4673413874170527</v>
+        <v>-0.1518700837796617</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.4732504928797163</v>
+        <v>0.6621429095442417</v>
       </c>
       <c r="B43">
-        <v>0.5188599217043076</v>
+        <v>-0.9396099612897562</v>
       </c>
       <c r="C43">
-        <v>0.5775111711064101</v>
+        <v>-0.03553619163174476</v>
       </c>
     </row>
   </sheetData>
@@ -1382,464 +1382,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.08849522062226949</v>
+        <v>-0.4409580015152517</v>
       </c>
       <c r="B2">
-        <v>-0.6442345506827364</v>
+        <v>0.7175522396214203</v>
       </c>
       <c r="C2">
-        <v>0.5291401085960603</v>
+        <v>-0.9903022330940408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.108505440274858</v>
+        <v>1.254005849368318</v>
       </c>
       <c r="B3">
-        <v>0.08638095887508278</v>
+        <v>0.8375359842586232</v>
       </c>
       <c r="C3">
-        <v>0.9321346690689565</v>
+        <v>0.3928605142528566</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.6767075244313898</v>
+        <v>-0.3329977424002467</v>
       </c>
       <c r="B4">
-        <v>1.234046066960465</v>
+        <v>-0.08904476370595232</v>
       </c>
       <c r="C4">
-        <v>0.5886449415164929</v>
+        <v>-2.224705730783698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.51608794297311</v>
+        <v>-1.403365840636277</v>
       </c>
       <c r="B5">
-        <v>0.06893117647673552</v>
+        <v>-0.7013800035969145</v>
       </c>
       <c r="C5">
-        <v>-0.6357759399319118</v>
+        <v>0.2237003002056912</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.3305556511992084</v>
+        <v>-0.06321741967508022</v>
       </c>
       <c r="B6">
-        <v>0.8990369631817791</v>
+        <v>0.1131623318451737</v>
       </c>
       <c r="C6">
-        <v>0.6057314061855699</v>
+        <v>-1.114207819499164</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.5870420747231043</v>
+        <v>-1.329243619552414</v>
       </c>
       <c r="B7">
-        <v>-1.654672822077061</v>
+        <v>-0.8518509682506835</v>
       </c>
       <c r="C7">
-        <v>-1.360699780262058</v>
+        <v>0.4783226003094062</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.419800728136989</v>
+        <v>-1.04730361190455</v>
       </c>
       <c r="B8">
-        <v>1.022070398852786</v>
+        <v>0.03752776679479039</v>
       </c>
       <c r="C8">
-        <v>0.4586690798613156</v>
+        <v>-0.3676582314503954</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.659364700570427</v>
+        <v>-1.626030785658734</v>
       </c>
       <c r="B9">
-        <v>-0.8430810101104999</v>
+        <v>-0.2323905285122786</v>
       </c>
       <c r="C9">
-        <v>-0.6252174157824693</v>
+        <v>1.357032406471347</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.6577088361506813</v>
+        <v>1.046180917533601</v>
       </c>
       <c r="B10">
-        <v>1.785810075876274</v>
+        <v>-0.8841819550691747</v>
       </c>
       <c r="C10">
-        <v>-0.1766078615217041</v>
+        <v>-1.716442033533567</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.15167569801671</v>
+        <v>1.141435262592314</v>
       </c>
       <c r="B11">
-        <v>-0.214706031287522</v>
+        <v>-0.4604887860957739</v>
       </c>
       <c r="C11">
-        <v>-0.8338136269961298</v>
+        <v>1.455102406772307</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.8631003535173306</v>
+        <v>0.2009619863263346</v>
       </c>
       <c r="B12">
-        <v>-1.798720775714591</v>
+        <v>1.00322296204326</v>
       </c>
       <c r="C12">
-        <v>0.07540449088905131</v>
+        <v>1.116667969395817</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3944593557015502</v>
+        <v>-0.369524173619611</v>
       </c>
       <c r="B13">
-        <v>-1.140302736431387</v>
+        <v>-0.7359799718153112</v>
       </c>
       <c r="C13">
-        <v>-0.8436454030760947</v>
+        <v>-0.2724647695602564</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3516206815083218</v>
+        <v>-0.2439803120625511</v>
       </c>
       <c r="B14">
-        <v>-0.4078454035397219</v>
+        <v>-0.5327185424091436</v>
       </c>
       <c r="C14">
-        <v>-0.9645199706538375</v>
+        <v>1.498559553310572</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.03818765000194624</v>
+        <v>0.2055928393237021</v>
       </c>
       <c r="B15">
-        <v>0.40840768459953</v>
+        <v>-0.8747655540168354</v>
       </c>
       <c r="C15">
-        <v>-0.9576258556049841</v>
+        <v>0.5623124280405654</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.3978527537247363</v>
+        <v>0.01599825658923995</v>
       </c>
       <c r="B16">
-        <v>1.076326122318834</v>
+        <v>-0.8430731222533603</v>
       </c>
       <c r="C16">
-        <v>-0.6213873120022539</v>
+        <v>1.027839312475071</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.843658738719386</v>
+        <v>0.9199057378433745</v>
       </c>
       <c r="B17">
-        <v>0.3362696748911375</v>
+        <v>-0.7493114930969236</v>
       </c>
       <c r="C17">
-        <v>-0.8813409502312907</v>
+        <v>0.5327149869799775</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.34078027188606</v>
+        <v>1.077595270852391</v>
       </c>
       <c r="B18">
-        <v>-1.417960848366472</v>
+        <v>1.439803160165759</v>
       </c>
       <c r="C18">
-        <v>0.6194120312505851</v>
+        <v>1.195026321294629</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.632078834506772</v>
+        <v>-1.523878407611889</v>
       </c>
       <c r="B19">
-        <v>-0.4484986146589375</v>
+        <v>1.223364563035271</v>
       </c>
       <c r="C19">
-        <v>1.192062524722727</v>
+        <v>-0.3363778779644165</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.2696550389731365</v>
+        <v>0.5636156445874883</v>
       </c>
       <c r="B20">
-        <v>0.6126880702743283</v>
+        <v>1.110502350623482</v>
       </c>
       <c r="C20">
-        <v>1.357150394435061</v>
+        <v>-0.1008328718439634</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.022028466413159</v>
+        <v>1.362855731332981</v>
       </c>
       <c r="B21">
-        <v>1.045067289677364</v>
+        <v>0.3811591443603893</v>
       </c>
       <c r="C21">
-        <v>0.6875675820598336</v>
+        <v>-0.1951630603263099</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.631341279876912</v>
+        <v>1.86900207205921</v>
       </c>
       <c r="B22">
-        <v>1.250473329298802</v>
+        <v>-0.4519871796596864</v>
       </c>
       <c r="C22">
-        <v>-0.03636177834251136</v>
+        <v>-0.3921070894712467</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-1.235769061985104</v>
+        <v>-1.615751910867727</v>
       </c>
       <c r="B23">
-        <v>-0.8092777129422641</v>
+        <v>-0.2802015742522216</v>
       </c>
       <c r="C23">
-        <v>-0.5244657084088731</v>
+        <v>-0.06325559201625412</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.527309152415785</v>
+        <v>1.275491291256901</v>
       </c>
       <c r="B24">
-        <v>-0.4682866880307454</v>
+        <v>-0.7461847688170132</v>
       </c>
       <c r="C24">
-        <v>-0.8841653709950673</v>
+        <v>0.4540842777730471</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.4342856753526728</v>
+        <v>-0.2588338652200712</v>
       </c>
       <c r="B25">
-        <v>-0.06403255822177593</v>
+        <v>1.188177359516401</v>
       </c>
       <c r="C25">
-        <v>1.285701260478983</v>
+        <v>-0.3618517232686599</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.72412890774268</v>
+        <v>-1.591518259010247</v>
       </c>
       <c r="B26">
-        <v>-0.0115987795109789</v>
+        <v>-0.7728651088840726</v>
       </c>
       <c r="C26">
-        <v>-0.8770743509690572</v>
+        <v>0.2370342805810642</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.27601456939984</v>
+        <v>1.34017296177697</v>
       </c>
       <c r="B27">
-        <v>0.2881868475192327</v>
+        <v>1.057736722526622</v>
       </c>
       <c r="C27">
-        <v>1.229784804959239</v>
+        <v>-0.4600468271991829</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7460256815166881</v>
+        <v>0.7114522364155268</v>
       </c>
       <c r="B28">
-        <v>0.09390831343479476</v>
+        <v>1.206832894959432</v>
       </c>
       <c r="C28">
-        <v>1.430415056902061</v>
+        <v>-0.747642531422852</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.059727706663567</v>
+        <v>0.7025878318923996</v>
       </c>
       <c r="B29">
-        <v>-0.8934312058146573</v>
+        <v>-0.630424933378015</v>
       </c>
       <c r="C29">
-        <v>-0.7366982873819911</v>
+        <v>0.7693408925160738</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2.162739696933353</v>
+        <v>1.87555689415921</v>
       </c>
       <c r="B30">
-        <v>-0.9839097033979561</v>
+        <v>0.1123025319495461</v>
       </c>
       <c r="C30">
-        <v>-0.3726131787719782</v>
+        <v>1.205203556410427</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.4672077149174197</v>
+        <v>0.4223000684824645</v>
       </c>
       <c r="B31">
-        <v>-0.4372502873659381</v>
+        <v>2.089622504163454</v>
       </c>
       <c r="C31">
-        <v>2.212565292276018</v>
+        <v>-0.6029715354596328</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.2684317500600544</v>
+        <v>-0.05793843553225487</v>
       </c>
       <c r="B32">
-        <v>1.47819944394646</v>
+        <v>-0.8663264945126787</v>
       </c>
       <c r="C32">
-        <v>-0.144018944246972</v>
+        <v>-2.197807180348089</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.4713457524645167</v>
+        <v>-0.2750153999038527</v>
       </c>
       <c r="B33">
-        <v>1.023201529581762</v>
+        <v>0.3549719067554544</v>
       </c>
       <c r="C33">
-        <v>0.7905750804929644</v>
+        <v>-1.429948826744441</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.02251774309982453</v>
+        <v>0.0987662791141746</v>
       </c>
       <c r="B34">
-        <v>0.6255276246517427</v>
+        <v>-1.567189670747453</v>
       </c>
       <c r="C34">
-        <v>-1.521778822365627</v>
+        <v>0.7312174036962291</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.7986819944446349</v>
+        <v>-1.108642478115535</v>
       </c>
       <c r="B35">
-        <v>-0.5105841632636514</v>
+        <v>-1.241847503851643</v>
       </c>
       <c r="C35">
-        <v>-1.221363683955902</v>
+        <v>-0.8291115485624631</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.099234325175332</v>
+        <v>-1.062965919131842</v>
       </c>
       <c r="B36">
-        <v>-0.5780548988634095</v>
+        <v>1.817743554274955</v>
       </c>
       <c r="C36">
-        <v>1.825994441070511</v>
+        <v>-0.2884477485887587</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.023866207502421</v>
+        <v>-0.9934521446168045</v>
       </c>
       <c r="B37">
-        <v>-0.5082734604889745</v>
+        <v>0.2841803346016824</v>
       </c>
       <c r="C37">
-        <v>-0.111058864809997</v>
+        <v>1.502348389125549</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.07101168667970389</v>
+        <v>0.182291886147672</v>
       </c>
       <c r="B38">
-        <v>1.490953291516209</v>
+        <v>-1.816046773155391</v>
       </c>
       <c r="C38">
-        <v>-1.412358260467739</v>
+        <v>-0.913219547915387</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.8030281404053059</v>
+        <v>1.209409954883916</v>
       </c>
       <c r="B39">
-        <v>1.91861822474587</v>
+        <v>-1.195365600848568</v>
       </c>
       <c r="C39">
-        <v>-0.5879487904379017</v>
+        <v>-1.477593469130907</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.0651266218138193</v>
+        <v>-0.4092866278283138</v>
       </c>
       <c r="B40">
-        <v>-2.051815799307001</v>
+        <v>0.5995684572389819</v>
       </c>
       <c r="C40">
-        <v>-0.1044478627485922</v>
+        <v>0.4919751115301595</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.1150593419006105</v>
+        <v>-0.3299711591739432</v>
       </c>
       <c r="B41">
-        <v>-1.516032996749082</v>
+        <v>1.048246502084952</v>
       </c>
       <c r="C41">
-        <v>0.5723869745977951</v>
+        <v>1.450081270088855</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.312426312597601</v>
+        <v>-1.17658167304101</v>
       </c>
       <c r="B42">
-        <v>0.1098797685587148</v>
+        <v>1.535787362362783</v>
       </c>
       <c r="C42">
-        <v>1.695897093668993</v>
+        <v>-0.4826090893844786</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.2925306834366704</v>
+        <v>-0.2147211854599832</v>
       </c>
       <c r="B43">
-        <v>0.5485881915874614</v>
+        <v>-1.635375336253338</v>
       </c>
       <c r="C43">
-        <v>-1.654249213067277</v>
+        <v>0.8833433563385173</v>
       </c>
     </row>
   </sheetData>
@@ -1868,464 +1868,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.3200166178212955</v>
+        <v>-0.6888244741785953</v>
       </c>
       <c r="B2">
-        <v>-0.1642510453019875</v>
+        <v>2.094950243562357</v>
       </c>
       <c r="C2">
-        <v>1.834404573795658</v>
+        <v>-0.3398211704778648</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.338060157426742</v>
+        <v>-1.349150037521228</v>
       </c>
       <c r="B3">
-        <v>0.1546555400202779</v>
+        <v>0.858731453798114</v>
       </c>
       <c r="C3">
-        <v>0.8157305471999284</v>
+        <v>-0.3494795072863722</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.539789107899809</v>
+        <v>1.279441101572068</v>
       </c>
       <c r="B4">
-        <v>-0.2909664095710328</v>
+        <v>0.3236215879101466</v>
       </c>
       <c r="C4">
-        <v>0.0003494839312713062</v>
+        <v>0.5923905077801068</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.559812066220652</v>
+        <v>-0.6191886609426993</v>
       </c>
       <c r="B5">
-        <v>-1.124246130362424</v>
+        <v>-0.6124333464101538</v>
       </c>
       <c r="C5">
-        <v>-0.826388454141414</v>
+        <v>1.571555875258956</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.285987462452919</v>
+        <v>1.390603791161906</v>
       </c>
       <c r="B6">
-        <v>0.3308503331931206</v>
+        <v>-1.398362551264963</v>
       </c>
       <c r="C6">
-        <v>-1.652914698921953</v>
+        <v>-0.05234280155502953</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.073342367794167</v>
+        <v>-0.8634930176819604</v>
       </c>
       <c r="B7">
-        <v>0.5999558397835771</v>
+        <v>-1.093209869534121</v>
       </c>
       <c r="C7">
-        <v>-1.055174405205139</v>
+        <v>1.551279786167124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.3624579970242287</v>
+        <v>0.2332059709952519</v>
       </c>
       <c r="B8">
-        <v>1.713958856825946</v>
+        <v>-1.579157924143588</v>
       </c>
       <c r="C8">
-        <v>-1.063833500493857</v>
+        <v>-0.4769863084133253</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-2.047383884032042</v>
+        <v>-2.055582333634897</v>
       </c>
       <c r="B9">
-        <v>-0.2035723602383257</v>
+        <v>0.06696104577378165</v>
       </c>
       <c r="C9">
-        <v>-0.05092445536535096</v>
+        <v>0.5305507149591808</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.8924976195667516</v>
+        <v>0.6572280027618012</v>
       </c>
       <c r="B10">
-        <v>-1.114975474190087</v>
+        <v>0.3605767287933533</v>
       </c>
       <c r="C10">
-        <v>0.5589542304204856</v>
+        <v>0.1504533172099146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.044134518126934</v>
+        <v>0.4293396188552592</v>
       </c>
       <c r="B11">
-        <v>-1.860949372616593</v>
+        <v>1.512486464185211</v>
       </c>
       <c r="C11">
-        <v>1.115740740118884</v>
+        <v>-1.052531227619719</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.4193197714977625</v>
+        <v>-0.09313436157387721</v>
       </c>
       <c r="B12">
-        <v>1.302093653377267</v>
+        <v>-0.4523230907891132</v>
       </c>
       <c r="C12">
-        <v>-0.195565471653148</v>
+        <v>-1.339959479739929</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.6624707753883777</v>
+        <v>-0.2525129131195539</v>
       </c>
       <c r="B13">
-        <v>1.186472833362539</v>
+        <v>-0.05693701087877432</v>
       </c>
       <c r="C13">
-        <v>0.3371911317686481</v>
+        <v>1.009733281983788</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3337011483927375</v>
+        <v>-0.3513846300798485</v>
       </c>
       <c r="B14">
-        <v>0.01596306159924706</v>
+        <v>1.290919237088463</v>
       </c>
       <c r="C14">
-        <v>1.454436663049358</v>
+        <v>-0.1797129239694951</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.1869856791175321</v>
+        <v>0.2310009268895236</v>
       </c>
       <c r="B15">
-        <v>-0.6725405268890693</v>
+        <v>-1.938801328910506</v>
       </c>
       <c r="C15">
-        <v>-1.944189611137152</v>
+        <v>0.4448335667071062</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.5664600027847952</v>
+        <v>-0.7039560124810943</v>
       </c>
       <c r="B16">
-        <v>-1.194057838443737</v>
+        <v>-0.8106811557508129</v>
       </c>
       <c r="C16">
-        <v>-0.4670494296509781</v>
+        <v>-1.26968944259191</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.4070847191274762</v>
+        <v>-0.009611635202089519</v>
       </c>
       <c r="B17">
-        <v>-1.489345293594357</v>
+        <v>-1.1522266218655</v>
       </c>
       <c r="C17">
-        <v>-1.004629132664212</v>
+        <v>-1.402534128947325</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.318628901625981</v>
+        <v>0.6944873215746385</v>
       </c>
       <c r="B18">
-        <v>1.337974628965761</v>
+        <v>0.6875974546558155</v>
       </c>
       <c r="C18">
-        <v>0.9945794980734036</v>
+        <v>-1.424615501470339</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.9923134019020677</v>
+        <v>0.8172052453810607</v>
       </c>
       <c r="B19">
-        <v>0.6871773635762513</v>
+        <v>0.416068579509955</v>
       </c>
       <c r="C19">
-        <v>-0.2591087584017941</v>
+        <v>0.4643285261308543</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.0475743480867178</v>
+        <v>0.3667765889553938</v>
       </c>
       <c r="B20">
-        <v>0.9004372386847496</v>
+        <v>0.8501626374930837</v>
       </c>
       <c r="C20">
-        <v>1.188052014154738</v>
+        <v>0.1370967277601845</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.570647366224352</v>
+        <v>1.433150304115771</v>
       </c>
       <c r="B21">
-        <v>-0.8664770649591256</v>
+        <v>0.4841413332266197</v>
       </c>
       <c r="C21">
-        <v>0.4409613752920242</v>
+        <v>0.8526412382626113</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.5970566632332176</v>
+        <v>0.4926793120563994</v>
       </c>
       <c r="B22">
-        <v>-1.362226650722584</v>
+        <v>1.262312364882145</v>
       </c>
       <c r="C22">
-        <v>0.7480080436584432</v>
+        <v>1.116206067553213</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.281976238026679</v>
+        <v>-0.00527715238313276</v>
       </c>
       <c r="B23">
-        <v>1.301940661022899</v>
+        <v>-1.266233655623045</v>
       </c>
       <c r="C23">
-        <v>-1.238311627812654</v>
+        <v>-0.7114304075292917</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.7886690851707747</v>
+        <v>1.218411474615976</v>
       </c>
       <c r="B24">
-        <v>0.8899053433413256</v>
+        <v>0.5257092324647851</v>
       </c>
       <c r="C24">
-        <v>0.7901913592471563</v>
+        <v>0.8558482494034988</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.6066989984173665</v>
+        <v>-0.2771585203340863</v>
       </c>
       <c r="B25">
-        <v>0.4873884278835734</v>
+        <v>0.8041851057586444</v>
       </c>
       <c r="C25">
-        <v>1.669445424529173</v>
+        <v>-0.5081221726620339</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.5221500079132826</v>
+        <v>-0.6868655147564811</v>
       </c>
       <c r="B26">
-        <v>0.1073769020297635</v>
+        <v>-0.1613024048347428</v>
       </c>
       <c r="C26">
-        <v>-0.5512638568066318</v>
+        <v>-0.5557348848777321</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.6184843389030847</v>
+        <v>-1.016561805740423</v>
       </c>
       <c r="B27">
-        <v>-1.573526011210328</v>
+        <v>0.5664438813621122</v>
       </c>
       <c r="C27">
-        <v>0.8464278182549028</v>
+        <v>-1.258183575612038</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.707858343843419</v>
+        <v>1.504048687460228</v>
       </c>
       <c r="B28">
-        <v>-0.3410409814831936</v>
+        <v>0.01998005889317751</v>
       </c>
       <c r="C28">
-        <v>-0.4039566335493683</v>
+        <v>0.01654726945384754</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-2.129256390227429</v>
+        <v>-2.040798121641823</v>
       </c>
       <c r="B29">
-        <v>-0.3578213968325031</v>
+        <v>-0.5844485482187572</v>
       </c>
       <c r="C29">
-        <v>-0.5068560970576882</v>
+        <v>0.8581912986050715</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.1072027481955816</v>
+        <v>0.4324705513843734</v>
       </c>
       <c r="B30">
-        <v>1.114414302884647</v>
+        <v>-1.222271531554764</v>
       </c>
       <c r="C30">
-        <v>-0.947039119626513</v>
+        <v>-0.4601797708930932</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.08227348865048471</v>
+        <v>0.02936636267021547</v>
       </c>
       <c r="B31">
-        <v>1.126970250584237</v>
+        <v>-0.9062824870425398</v>
       </c>
       <c r="C31">
-        <v>-0.7373445203233362</v>
+        <v>-0.8363942562185265</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.30958612119697</v>
+        <v>1.726155821393289</v>
       </c>
       <c r="B32">
-        <v>0.5734974705999351</v>
+        <v>-0.5073505654695124</v>
       </c>
       <c r="C32">
-        <v>-1.266876807383377</v>
+        <v>1.262256458168756</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.89748997377651</v>
+        <v>1.746578650967939</v>
       </c>
       <c r="B33">
-        <v>0.3936293302125147</v>
+        <v>0.4104848912990164</v>
       </c>
       <c r="C33">
-        <v>0.05288229626490436</v>
+        <v>1.524696260870469</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.9359332162884793</v>
+        <v>-1.288952334879508</v>
       </c>
       <c r="B34">
-        <v>-1.881768183792725</v>
+        <v>0.4013632162969035</v>
       </c>
       <c r="C34">
-        <v>0.1055045234863515</v>
+        <v>0.151611404987118</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.25499513701534</v>
+        <v>0.8890521805907879</v>
       </c>
       <c r="B35">
-        <v>1.444757971629298</v>
+        <v>-0.3439183963196082</v>
       </c>
       <c r="C35">
-        <v>0.2450453491553091</v>
+        <v>1.320268429767412</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.01097581380102763</v>
+        <v>0.1144877703902941</v>
       </c>
       <c r="B36">
-        <v>0.9341906084542556</v>
+        <v>-1.128056375919192</v>
       </c>
       <c r="C36">
-        <v>-0.6249899052889883</v>
+        <v>-2.161797686532392</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.003124628009300115</v>
+        <v>-0.2598003753353103</v>
       </c>
       <c r="B37">
-        <v>0.04514313224164184</v>
+        <v>1.847567576483538</v>
       </c>
       <c r="C37">
-        <v>1.620660982351767</v>
+        <v>0.2363139532934781</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.09896714860424</v>
+        <v>-1.25868131672996</v>
       </c>
       <c r="B38">
-        <v>-1.56660715174049</v>
+        <v>-1.423533925136333</v>
       </c>
       <c r="C38">
-        <v>-1.5518461345217</v>
+        <v>1.572505247312136</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.179954824555454</v>
+        <v>0.723868248147604</v>
       </c>
       <c r="B39">
-        <v>-1.268154308313925</v>
+        <v>-1.033592986754153</v>
       </c>
       <c r="C39">
-        <v>-1.077993377154631</v>
+        <v>-1.622157615412479</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3315937682611071</v>
+        <v>0.06561732203960847</v>
       </c>
       <c r="B40">
-        <v>0.3813734816795906</v>
+        <v>1.127407023729101</v>
       </c>
       <c r="C40">
-        <v>0.9913680142118155</v>
+        <v>-1.263118945447694</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.5741495218040636</v>
+        <v>0.5225325712432249</v>
       </c>
       <c r="B41">
-        <v>0.4874847453118838</v>
+        <v>1.428298074280804</v>
       </c>
       <c r="C41">
-        <v>1.607700836163025</v>
+        <v>-0.6086506433262492</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.3409969025551</v>
+        <v>-1.356389951497508</v>
       </c>
       <c r="B42">
-        <v>0.1798549832399299</v>
+        <v>-0.08979350612478722</v>
       </c>
       <c r="C42">
-        <v>-0.5403430236779827</v>
+        <v>1.09493147928757</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.720337351403703</v>
+        <v>-1.820384655508536</v>
       </c>
       <c r="B43">
-        <v>-0.3649407602417445</v>
+        <v>0.4209490910978386</v>
       </c>
       <c r="C43">
-        <v>0.548964115710621</v>
+        <v>0.5592027896604382</v>
       </c>
     </row>
   </sheetData>
@@ -2354,464 +2354,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.8782231446036501</v>
+        <v>-0.8691572268669544</v>
       </c>
       <c r="B2">
-        <v>1.153116475523737</v>
+        <v>-1.259224785925954</v>
       </c>
       <c r="C2">
-        <v>-1.663603619529981</v>
+        <v>1.592602098680202</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.8547600571876107</v>
+        <v>-0.8354752778883147</v>
       </c>
       <c r="B3">
-        <v>1.607465415709459</v>
+        <v>-1.580954982326427</v>
       </c>
       <c r="C3">
-        <v>0.8906822141416298</v>
+        <v>-1.02214781512981</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9298662559538269</v>
+        <v>0.9365332346385457</v>
       </c>
       <c r="B4">
-        <v>-1.212654481115996</v>
+        <v>1.307094785253653</v>
       </c>
       <c r="C4">
-        <v>-0.1330478679948523</v>
+        <v>0.2538331371056953</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.09598362889609645</v>
+        <v>-0.04755959421467499</v>
       </c>
       <c r="B5">
-        <v>1.729166195158688</v>
+        <v>-1.77654653592685</v>
       </c>
       <c r="C5">
-        <v>0.5164842369404006</v>
+        <v>-0.6656530748580392</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.2536268783979777</v>
+        <v>-0.2403862614731563</v>
       </c>
       <c r="B6">
-        <v>-1.082228968068522</v>
+        <v>1.18049346489341</v>
       </c>
       <c r="C6">
-        <v>-0.7165838090659189</v>
+        <v>0.8438632329667144</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2752206985300663</v>
+        <v>0.300479967792767</v>
       </c>
       <c r="B7">
-        <v>-0.1683414477072536</v>
+        <v>0.2190972662198699</v>
       </c>
       <c r="C7">
-        <v>0.7590742794805714</v>
+        <v>-0.7427712899979471</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.398807745155624</v>
+        <v>-1.379486595773438</v>
       </c>
       <c r="B8">
-        <v>0.1490172614340078</v>
+        <v>-0.08637840146318303</v>
       </c>
       <c r="C8">
-        <v>-0.2395134779695743</v>
+        <v>0.2616197147579888</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.111283062544113</v>
+        <v>-1.096992071883929</v>
       </c>
       <c r="B9">
-        <v>0.3668864879478814</v>
+        <v>-0.3116121702588192</v>
       </c>
       <c r="C9">
-        <v>-0.6686149428332422</v>
+        <v>0.6854237594752718</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.210519359537528</v>
+        <v>-1.161120419096431</v>
       </c>
       <c r="B10">
-        <v>-1.108408543138414</v>
+        <v>1.181165713554525</v>
       </c>
       <c r="C10">
-        <v>0.4279497324251559</v>
+        <v>-0.3273455329914281</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.0592829471729499</v>
+        <v>0.102485400160332</v>
       </c>
       <c r="B11">
-        <v>1.171109082736757</v>
+        <v>-1.144373351466119</v>
       </c>
       <c r="C11">
-        <v>1.44273919839496</v>
+        <v>-1.546625574786125</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.860656145549232</v>
+        <v>1.857965948277755</v>
       </c>
       <c r="B12">
-        <v>1.010492290236126</v>
+        <v>-1.004314075947246</v>
       </c>
       <c r="C12">
-        <v>-0.02140082041038185</v>
+        <v>-0.05488825252974411</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.406100508440192</v>
+        <v>1.422057945514782</v>
       </c>
       <c r="B13">
-        <v>0.3018632520190905</v>
+        <v>-0.2730916771028417</v>
       </c>
       <c r="C13">
-        <v>0.1714844814315806</v>
+        <v>-0.1881490167221138</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3755497333801804</v>
+        <v>-0.3496691889553552</v>
       </c>
       <c r="B14">
-        <v>-1.508589233837286</v>
+        <v>1.616240487308122</v>
       </c>
       <c r="C14">
-        <v>1.060371217561596</v>
+        <v>-0.9313233479259024</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.9488723632720354</v>
+        <v>0.958182407007088</v>
       </c>
       <c r="B15">
-        <v>-1.519340977998046</v>
+        <v>1.620784509913245</v>
       </c>
       <c r="C15">
-        <v>0.9626326589764245</v>
+        <v>-0.8342959568578802</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.6770977497576534</v>
+        <v>0.6760760277686878</v>
       </c>
       <c r="B16">
-        <v>0.5321168393289587</v>
+        <v>-0.5666765983804238</v>
       </c>
       <c r="C16">
-        <v>-1.189468734908047</v>
+        <v>1.163743741257942</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.2947273359523453</v>
+        <v>0.2882464419102798</v>
       </c>
       <c r="B17">
-        <v>0.1942301383944922</v>
+        <v>-0.1797310182725563</v>
       </c>
       <c r="C17">
-        <v>0.01976327494456106</v>
+        <v>-0.03502273672519178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.441738604157802</v>
+        <v>1.420269739150054</v>
       </c>
       <c r="B18">
-        <v>-0.8471666079546745</v>
+        <v>0.8202301679113925</v>
       </c>
       <c r="C18">
-        <v>-0.4318098942826003</v>
+        <v>0.4830806906765848</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.5225270593400677</v>
+        <v>-1.067938838690351</v>
       </c>
       <c r="B19">
-        <v>-1.533571427651707</v>
+        <v>0.881155470520202</v>
       </c>
       <c r="C19">
-        <v>-0.2803153039855356</v>
+        <v>0.1798336809774765</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.157699734096894</v>
+        <v>1.131180444397724</v>
       </c>
       <c r="B20">
-        <v>0.1225757288990757</v>
+        <v>-0.06848509576053469</v>
       </c>
       <c r="C20">
-        <v>0.7508185670753433</v>
+        <v>-0.7649076122495978</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.350151240292814</v>
+        <v>1.329700792941199</v>
       </c>
       <c r="B21">
-        <v>-0.3876703863700947</v>
+        <v>0.5071549929988639</v>
       </c>
       <c r="C21">
-        <v>1.49941152673181</v>
+        <v>-1.467316598831344</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.2373499040795237</v>
+        <v>-0.2613069121244007</v>
       </c>
       <c r="B22">
-        <v>-1.984509567340733</v>
+        <v>1.871061419307317</v>
       </c>
       <c r="C22">
-        <v>-0.954913635290057</v>
+        <v>1.067573256075423</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.7353262463799868</v>
+        <v>0.7327840187085918</v>
       </c>
       <c r="B23">
-        <v>-0.4091743492075157</v>
+        <v>0.5007665639615734</v>
       </c>
       <c r="C23">
-        <v>-0.01606950788696439</v>
+        <v>0.07367266578592435</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.2848968516521291</v>
+        <v>-0.2559286000040829</v>
       </c>
       <c r="B24">
-        <v>0.9762357841123901</v>
+        <v>-1.067107529618747</v>
       </c>
       <c r="C24">
-        <v>-0.2601802128298089</v>
+        <v>0.1637697741822497</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.355420979155015</v>
+        <v>1.369036033180236</v>
       </c>
       <c r="B25">
-        <v>-0.03211664750219376</v>
+        <v>-0.06779943242970451</v>
       </c>
       <c r="C25">
-        <v>-1.296096472464686</v>
+        <v>1.282754574804431</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.533259954141771</v>
+        <v>-1.511850855453356</v>
       </c>
       <c r="B26">
-        <v>0.3259698958945551</v>
+        <v>-0.2701002686983054</v>
       </c>
       <c r="C26">
-        <v>0.3267995970403996</v>
+        <v>-0.3328199950068646</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.368378540601692</v>
+        <v>-0.3344202380018124</v>
       </c>
       <c r="B27">
-        <v>-0.07897310804691629</v>
+        <v>-0.07311304664172608</v>
       </c>
       <c r="C27">
-        <v>-1.940991893914369</v>
+        <v>1.929346263994382</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.8673205839100143</v>
+        <v>-0.8588188507275815</v>
       </c>
       <c r="B28">
-        <v>-1.142646929467279</v>
+        <v>1.328759874080977</v>
       </c>
       <c r="C28">
-        <v>1.433863493746059</v>
+        <v>-1.3193496908558</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.37576233273644</v>
+        <v>-1.344962747445213</v>
       </c>
       <c r="B29">
-        <v>-0.7539279029286502</v>
+        <v>0.7393292134702182</v>
       </c>
       <c r="C29">
-        <v>0.1879721954913271</v>
+        <v>-0.1409585362683411</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.3237322521758565</v>
+        <v>0.331353993149326</v>
       </c>
       <c r="B30">
-        <v>0.6691669033329455</v>
+        <v>-0.7681859310477954</v>
       </c>
       <c r="C30">
-        <v>-1.389667171480749</v>
+        <v>1.336616397219138</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.416262717271141</v>
+        <v>1.418301520253928</v>
       </c>
       <c r="B31">
-        <v>1.121841983791879</v>
+        <v>-1.007881514539708</v>
       </c>
       <c r="C31">
-        <v>0.469591679572948</v>
+        <v>-0.5257526791935169</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.7898130996466524</v>
+        <v>-0.7695145354180258</v>
       </c>
       <c r="B32">
-        <v>-0.7035349210277724</v>
+        <v>0.5444336743188695</v>
       </c>
       <c r="C32">
-        <v>-1.017043544081073</v>
+        <v>1.026589061248474</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.723947405105322</v>
+        <v>-1.688427376516218</v>
       </c>
       <c r="B33">
-        <v>1.318609066095257</v>
+        <v>-1.350199132165944</v>
       </c>
       <c r="C33">
-        <v>-0.4947743864311721</v>
+        <v>0.4116147210536794</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.6120187493723263</v>
+        <v>-0.5861592125551324</v>
       </c>
       <c r="B34">
-        <v>1.616396006778819</v>
+        <v>-1.496738087211768</v>
       </c>
       <c r="C34">
-        <v>1.411752100411646</v>
+        <v>-1.517734259032462</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.047690084820112</v>
+        <v>-1.043745945293559</v>
       </c>
       <c r="B35">
-        <v>-0.6424092152320572</v>
+        <v>0.8255187084330295</v>
       </c>
       <c r="C35">
-        <v>2.024517400748948</v>
+        <v>-1.963365339317218</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.06373792107434</v>
+        <v>-1.030532550229991</v>
       </c>
       <c r="B36">
-        <v>-0.3986296040694378</v>
+        <v>0.320294501067419</v>
       </c>
       <c r="C36">
-        <v>-1.488050433882958</v>
+        <v>1.526626298583355</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.672124440405101</v>
+        <v>0.6943185392097088</v>
       </c>
       <c r="B37">
-        <v>1.844556815045147</v>
+        <v>-1.806326510975539</v>
       </c>
       <c r="C37">
-        <v>0.1684107295983875</v>
+        <v>-0.285232478372165</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.4507954868620613</v>
+        <v>-0.4318424846026044</v>
       </c>
       <c r="B38">
-        <v>-0.1841371770086379</v>
+        <v>0.09611826807722834</v>
       </c>
       <c r="C38">
-        <v>-1.102241610038662</v>
+        <v>1.110234501381715</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.9377166785702055</v>
+        <v>0.9676412518335537</v>
       </c>
       <c r="B39">
-        <v>-0.6791148305373629</v>
+        <v>0.6911666326185509</v>
       </c>
       <c r="C39">
-        <v>-0.6233859241497042</v>
+        <v>0.6929198931317522</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.1641838817546004</v>
+        <v>-0.1535159956887556</v>
       </c>
       <c r="B40">
-        <v>-0.2032563677416545</v>
+        <v>0.3099080834594637</v>
       </c>
       <c r="C40">
-        <v>2.24107244753941</v>
+        <v>-2.237963978840944</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.163599082073794</v>
+        <v>-1.133097054547785</v>
       </c>
       <c r="B41">
-        <v>0.2215557967193404</v>
+        <v>-0.2988717451630775</v>
       </c>
       <c r="C41">
-        <v>0.1581333566638316</v>
+        <v>-0.2016774451274412</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.9712547967977525</v>
+        <v>0.9662646852577852</v>
       </c>
       <c r="B42">
-        <v>1.134138782572482</v>
+        <v>-1.15537130004301</v>
       </c>
       <c r="C42">
-        <v>-0.8024987957315332</v>
+        <v>0.7328711444445262</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.570782852942761</v>
+        <v>1.549030442298779</v>
       </c>
       <c r="B43">
-        <v>-0.9861075077788822</v>
+        <v>1.05230939399835</v>
       </c>
       <c r="C43">
-        <v>-0.1932523297551201</v>
+        <v>0.2867126038169497</v>
       </c>
     </row>
   </sheetData>
@@ -2840,464 +2840,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.9453809135526207</v>
+        <v>-0.5728090101372721</v>
       </c>
       <c r="B2">
-        <v>1.366832015411271</v>
+        <v>1.642928616910637</v>
       </c>
       <c r="C2">
-        <v>-0.6139161221951203</v>
+        <v>-0.1065813234479247</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.048894657150272</v>
+        <v>-0.9535968394952968</v>
       </c>
       <c r="B3">
-        <v>-0.06538592278257238</v>
+        <v>-0.03788224011640568</v>
       </c>
       <c r="C3">
-        <v>0.7534247466561304</v>
+        <v>-0.6713375020573732</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.7138182316254673</v>
+        <v>-0.7745043572234492</v>
       </c>
       <c r="B4">
-        <v>-0.5574022160386962</v>
+        <v>-0.5910410728349423</v>
       </c>
       <c r="C4">
-        <v>0.1804789365934497</v>
+        <v>0.3912992998602177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.2337338054198085</v>
+        <v>0.4993293612005122</v>
       </c>
       <c r="B5">
-        <v>1.040388843928023</v>
+        <v>0.7153478911179948</v>
       </c>
       <c r="C5">
-        <v>0.6720757895274917</v>
+        <v>-1.241501547619188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.09006119873868265</v>
+        <v>0.2453869299040448</v>
       </c>
       <c r="B6">
-        <v>0.528962364024301</v>
+        <v>0.316959769477326</v>
       </c>
       <c r="C6">
-        <v>-0.1167806669054871</v>
+        <v>0.07419444806881237</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1719472102104252</v>
+        <v>-0.3150991415071037</v>
       </c>
       <c r="B7">
-        <v>-0.4647543351001597</v>
+        <v>0.54912297192103</v>
       </c>
       <c r="C7">
-        <v>-1.394370669296638</v>
+        <v>0.3426148265636956</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.171802243246045</v>
+        <v>-1.199659471321098</v>
       </c>
       <c r="B8">
-        <v>-0.3407212614163134</v>
+        <v>-0.5566000117777025</v>
       </c>
       <c r="C8">
-        <v>1.09051866285736</v>
+        <v>-0.7796395190783424</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.07828392863263436</v>
+        <v>0.03239730314184277</v>
       </c>
       <c r="B9">
-        <v>-0.8615815984301505</v>
+        <v>-0.3624407571756573</v>
       </c>
       <c r="C9">
-        <v>-0.7632892016161116</v>
+        <v>1.305135063149945</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.524209203358531</v>
+        <v>-1.603430222333273</v>
       </c>
       <c r="B10">
-        <v>-0.7431482872953555</v>
+        <v>-0.6899714820601012</v>
       </c>
       <c r="C10">
-        <v>0.7843450465948958</v>
+        <v>-0.2919022158652944</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.3158586469471467</v>
+        <v>-0.8208442574213142</v>
       </c>
       <c r="B11">
-        <v>-2.030014796457873</v>
+        <v>-1.482995526408716</v>
       </c>
       <c r="C11">
-        <v>-0.4800662658126682</v>
+        <v>0.2990857558138816</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.497131106216891</v>
+        <v>1.711580012923516</v>
       </c>
       <c r="B12">
-        <v>1.057413643669668</v>
+        <v>0.3070839374812897</v>
       </c>
       <c r="C12">
-        <v>0.5341299459550786</v>
+        <v>-0.6606284560719539</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.779448849282294</v>
+        <v>1.794583674136073</v>
       </c>
       <c r="B13">
-        <v>0.3135311093689026</v>
+        <v>-0.09709293232213273</v>
       </c>
       <c r="C13">
-        <v>-0.5532786871825455</v>
+        <v>0.7219129283081047</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.293198463188625</v>
+        <v>1.115541830952187</v>
       </c>
       <c r="B14">
-        <v>-0.9099044621600278</v>
+        <v>-1.291720343127178</v>
       </c>
       <c r="C14">
-        <v>0.4364484495278548</v>
+        <v>0.3696221176225157</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.486084515730894</v>
+        <v>1.363912876096252</v>
       </c>
       <c r="B15">
-        <v>-0.5331079409990402</v>
+        <v>-1.311582787403784</v>
       </c>
       <c r="C15">
-        <v>1.161170998753853</v>
+        <v>-0.3957527188459857</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.2418902710032534</v>
+        <v>0.4726245570446489</v>
       </c>
       <c r="B16">
-        <v>0.8821888910255342</v>
+        <v>0.3565972289835523</v>
       </c>
       <c r="C16">
-        <v>0.6862385031347132</v>
+        <v>-0.8290074221956133</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.1746321652875098</v>
+        <v>0.1517117411819881</v>
       </c>
       <c r="B17">
-        <v>-0.6857102790206178</v>
+        <v>-0.8352475522741399</v>
       </c>
       <c r="C17">
-        <v>0.7355449206644964</v>
+        <v>-0.1637479313265973</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.368959826382182</v>
+        <v>1.405936557974501</v>
       </c>
       <c r="B18">
-        <v>0.1363498811890273</v>
+        <v>-0.04870346815869644</v>
       </c>
       <c r="C18">
-        <v>-0.6327595810029425</v>
+        <v>0.8704045505574831</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.147713823714282</v>
+        <v>-0.889342061621051</v>
       </c>
       <c r="B19">
-        <v>0.7572293063614004</v>
+        <v>0.7761411250763562</v>
       </c>
       <c r="C19">
-        <v>0.7301022325168341</v>
+        <v>-1.221541132442252</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.8328061207212657</v>
+        <v>0.9889639351141171</v>
       </c>
       <c r="B20">
-        <v>0.3870023309948974</v>
+        <v>0.3262019015501676</v>
       </c>
       <c r="C20">
-        <v>-0.1231085729239286</v>
+        <v>0.01681825875224702</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.3090164589030687</v>
+        <v>0.6304878577699342</v>
       </c>
       <c r="B21">
-        <v>1.55982208385126</v>
+        <v>0.6770923996589033</v>
       </c>
       <c r="C21">
-        <v>1.256570419171746</v>
+        <v>-1.858988422931128</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.1717584511185244</v>
+        <v>-0.06976231116460727</v>
       </c>
       <c r="B22">
-        <v>-0.1542028366375854</v>
+        <v>0.2760051897500349</v>
       </c>
       <c r="C22">
-        <v>-0.9886785041633498</v>
+        <v>1.185971564754466</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.5271707525547285</v>
+        <v>-0.3176225670006073</v>
       </c>
       <c r="B23">
-        <v>-1.579048368226573</v>
+        <v>-1.189384745592189</v>
       </c>
       <c r="C23">
-        <v>-0.8124483447832961</v>
+        <v>0.2100155684264573</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.4722241920135555</v>
+        <v>-0.2346473203278389</v>
       </c>
       <c r="B24">
-        <v>0.3711443325204963</v>
+        <v>1.280402725346637</v>
       </c>
       <c r="C24">
-        <v>-2.197466259322028</v>
+        <v>2.00487530287772</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.9579538395760024</v>
+        <v>1.310858475687973</v>
       </c>
       <c r="B25">
-        <v>1.82365999717408</v>
+        <v>1.77294401129987</v>
       </c>
       <c r="C25">
-        <v>-1.088791722236794</v>
+        <v>0.04957796840788552</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.2946444585694418</v>
+        <v>-0.3991980820893401</v>
       </c>
       <c r="B26">
-        <v>-0.7897809672376628</v>
+        <v>-1.355790223531995</v>
       </c>
       <c r="C26">
-        <v>1.851093661585145</v>
+        <v>-1.278082536217941</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.4867074675356527</v>
+        <v>-0.3754590724331915</v>
       </c>
       <c r="B27">
-        <v>-0.4477700365047589</v>
+        <v>0.4726589423628169</v>
       </c>
       <c r="C27">
-        <v>-1.665476873821959</v>
+        <v>1.868717152402716</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.522151045233791</v>
+        <v>-1.462780056776138</v>
       </c>
       <c r="B28">
-        <v>-0.37911623060621</v>
+        <v>0.09902846526304536</v>
       </c>
       <c r="C28">
-        <v>-0.1581682318124875</v>
+        <v>0.4817191749703051</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.50507159814948</v>
+        <v>-1.208259783804138</v>
       </c>
       <c r="B29">
-        <v>0.868004404238045</v>
+        <v>1.745942971073358</v>
       </c>
       <c r="C29">
-        <v>-1.387771852712694</v>
+        <v>0.547636880619486</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.025816375670614</v>
+        <v>0.9561328984623023</v>
       </c>
       <c r="B30">
-        <v>-0.8634628731941462</v>
+        <v>-0.8245889518845858</v>
       </c>
       <c r="C30">
-        <v>-0.5362445329843418</v>
+        <v>1.47102600296919</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.6783576374837855</v>
+        <v>1.047306180620722</v>
       </c>
       <c r="B31">
-        <v>1.747211206020727</v>
+        <v>1.783051807811361</v>
       </c>
       <c r="C31">
-        <v>-1.159820421673608</v>
+        <v>0.1705351337253987</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.858241743739468</v>
+        <v>-0.6776196856846447</v>
       </c>
       <c r="B32">
-        <v>0.04223002881563614</v>
+        <v>0.5809527393742804</v>
       </c>
       <c r="C32">
-        <v>-0.5403566812732604</v>
+        <v>0.3110544681663234</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.567828302639477</v>
+        <v>-1.658704301903485</v>
       </c>
       <c r="B33">
-        <v>-1.037742349082456</v>
+        <v>-0.6365635031921896</v>
       </c>
       <c r="C33">
-        <v>0.05901771588627201</v>
+        <v>0.7181880893662055</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.189031601812972</v>
+        <v>-1.133715932825255</v>
       </c>
       <c r="B34">
-        <v>0.1371027695207335</v>
+        <v>-0.3130550177298588</v>
       </c>
       <c r="C34">
-        <v>1.509497422944128</v>
+        <v>-1.52675759817891</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.0969587402835157</v>
+        <v>-0.778981763379769</v>
       </c>
       <c r="B35">
-        <v>-1.844800829701364</v>
+        <v>-1.92943633466363</v>
       </c>
       <c r="C35">
-        <v>1.060651412591213</v>
+        <v>-1.392000220197146</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.829545457475154</v>
+        <v>-1.577342687534178</v>
       </c>
       <c r="B36">
-        <v>0.3542528903956771</v>
+        <v>1.256134528256204</v>
       </c>
       <c r="C36">
-        <v>-1.149650442030737</v>
+        <v>1.059301466781299</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.8928069217435548</v>
+        <v>1.148568084770057</v>
       </c>
       <c r="B37">
-        <v>0.8065854719810139</v>
+        <v>0.2496962981486976</v>
       </c>
       <c r="C37">
-        <v>0.68978045654482</v>
+        <v>-0.6364649363331497</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.7011846900261153</v>
+        <v>0.5486223477810542</v>
       </c>
       <c r="B38">
-        <v>-1.430074697748605</v>
+        <v>-1.577874779905062</v>
       </c>
       <c r="C38">
-        <v>0.6517629165539081</v>
+        <v>0.6481166748216382</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.8087827624889197</v>
+        <v>-0.149687968361608</v>
       </c>
       <c r="B39">
-        <v>-1.513239722838547</v>
+        <v>-0.9041312784797724</v>
       </c>
       <c r="C39">
-        <v>-1.780491579564527</v>
+        <v>1.816288463200649</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.5193400797997948</v>
+        <v>0.4981399337860665</v>
       </c>
       <c r="B40">
-        <v>-0.4849100502300477</v>
+        <v>-1.390166068718176</v>
       </c>
       <c r="C40">
-        <v>1.480938967760572</v>
+        <v>-0.5775870841203371</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.517499077962592</v>
+        <v>-1.125018091658279</v>
       </c>
       <c r="B41">
-        <v>1.366605814348541</v>
+        <v>1.486358093648904</v>
       </c>
       <c r="C41">
-        <v>0.6196960161715879</v>
+        <v>-1.556998997080851</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.6973462655938628</v>
+        <v>1.008099857465087</v>
       </c>
       <c r="B42">
-        <v>1.524607135616817</v>
+        <v>0.7258326687507631</v>
       </c>
       <c r="C42">
-        <v>1.100792398547161</v>
+        <v>-1.829878664891626</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.18775183701175</v>
+        <v>1.367900569990058</v>
       </c>
       <c r="B43">
-        <v>0.6447555412527113</v>
+        <v>0.02978479409368543</v>
       </c>
       <c r="C43">
-        <v>0.09865559277581167</v>
+        <v>0.08428706871496988</v>
       </c>
     </row>
   </sheetData>
@@ -3326,464 +3326,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.431957827454082</v>
+        <v>-1.302524606707261</v>
       </c>
       <c r="B2">
-        <v>-0.1573981097239676</v>
+        <v>-1.006701457665141</v>
       </c>
       <c r="C2">
-        <v>1.160964905698727</v>
+        <v>0.9347639955478724</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.5736027360418257</v>
+        <v>-0.07646516193562702</v>
       </c>
       <c r="B3">
-        <v>-1.145402976180027</v>
+        <v>-1.662709475606056</v>
       </c>
       <c r="C3">
-        <v>1.507358331249787</v>
+        <v>1.261089512795551</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.7253107106779664</v>
+        <v>0.253120651067483</v>
       </c>
       <c r="B4">
-        <v>0.3834008858081474</v>
+        <v>-1.299642040219087</v>
       </c>
       <c r="C4">
-        <v>1.207662143245848</v>
+        <v>0.1496343718208648</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.8807315217786403</v>
+        <v>-1.595582999428076</v>
       </c>
       <c r="B5">
-        <v>1.38026028502621</v>
+        <v>0.9118624760190679</v>
       </c>
       <c r="C5">
-        <v>-1.110903014070937</v>
+        <v>0.2959174570360688</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.07798037085229298</v>
+        <v>0.578362267933505</v>
       </c>
       <c r="B6">
-        <v>-0.7581011221157004</v>
+        <v>1.665841468861133</v>
       </c>
       <c r="C6">
-        <v>-1.562276931980442</v>
+        <v>0.9806881299387896</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.634374762207235</v>
+        <v>0.9750471537784604</v>
       </c>
       <c r="B7">
-        <v>-0.9294084232452704</v>
+        <v>-0.5464796665937552</v>
       </c>
       <c r="C7">
-        <v>0.7415218085720237</v>
+        <v>0.2029261134808582</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.216967665607569</v>
+        <v>-0.8423476814265272</v>
       </c>
       <c r="B8">
-        <v>-0.5955051764211363</v>
+        <v>-0.7746279104596833</v>
       </c>
       <c r="C8">
-        <v>1.011010092891939</v>
+        <v>1.097935136959652</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.1205181006505396</v>
+        <v>0.3913436714626934</v>
       </c>
       <c r="B9">
-        <v>-0.9512522559431063</v>
+        <v>0.1545841186168175</v>
       </c>
       <c r="C9">
-        <v>0.2029126833882902</v>
+        <v>1.081977141131515</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.235244182260145</v>
+        <v>0.5209186699124666</v>
       </c>
       <c r="B10">
-        <v>0.5013775296237788</v>
+        <v>-1.330182825815183</v>
       </c>
       <c r="C10">
-        <v>0.9024023025704226</v>
+        <v>-0.9521696301616589</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.8275518401324145</v>
+        <v>1.232125097715374</v>
       </c>
       <c r="B11">
-        <v>-0.5842925289588774</v>
+        <v>1.985092954652806</v>
       </c>
       <c r="C11">
-        <v>-2.282418233940153</v>
+        <v>-0.528686675327626</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.6303139092329371</v>
+        <v>-0.781314803474436</v>
       </c>
       <c r="B12">
-        <v>1.133745183829733</v>
+        <v>1.263892917267236</v>
       </c>
       <c r="C12">
-        <v>-1.176296340351125</v>
+        <v>-1.229881557849621</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.002689441204169459</v>
+        <v>0.02820856898662327</v>
       </c>
       <c r="B13">
-        <v>0.5982985490444817</v>
+        <v>1.532719270971201</v>
       </c>
       <c r="C13">
-        <v>-1.287600007917222</v>
+        <v>-0.9595625861109275</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.8825496538150457</v>
+        <v>1.389563945432544</v>
       </c>
       <c r="B14">
-        <v>-1.004857073884954</v>
+        <v>1.37040453698829</v>
       </c>
       <c r="C14">
-        <v>-1.527547922823255</v>
+        <v>-0.1817900855463765</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.9216642623894371</v>
+        <v>-0.09167941156418197</v>
       </c>
       <c r="B15">
-        <v>1.914680774130054</v>
+        <v>0.2119097226152004</v>
       </c>
       <c r="C15">
-        <v>-0.2143817761147469</v>
+        <v>-1.615628104988818</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.7474463568447904</v>
+        <v>-0.2484931340845697</v>
       </c>
       <c r="B16">
-        <v>1.812092526726439</v>
+        <v>0.1796862961201269</v>
       </c>
       <c r="C16">
-        <v>-0.4112090704208455</v>
+        <v>-2.368608661798605</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.08063428137756171</v>
+        <v>0.2025714237999925</v>
       </c>
       <c r="B17">
-        <v>0.2294117691781398</v>
+        <v>0.4045172817697078</v>
       </c>
       <c r="C17">
-        <v>-0.2198840518660948</v>
+        <v>-0.8444738290201992</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.6872941098167524</v>
+        <v>-0.120165967711303</v>
       </c>
       <c r="B18">
-        <v>-0.979588424562342</v>
+        <v>0.8322493089013155</v>
       </c>
       <c r="C18">
-        <v>-0.9970372753151195</v>
+        <v>1.070867863090081</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.8961350590440978</v>
+        <v>-0.6922582698940195</v>
       </c>
       <c r="B19">
-        <v>-0.1195470765300017</v>
+        <v>-0.787307152044758</v>
       </c>
       <c r="C19">
-        <v>0.6139341817667722</v>
+        <v>-0.9916794222165051</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.602069202274022</v>
+        <v>-1.394540065535749</v>
       </c>
       <c r="B20">
-        <v>0.04192592936446755</v>
+        <v>0.4174837066512927</v>
       </c>
       <c r="C20">
-        <v>-0.3957957470346737</v>
+        <v>-0.01688461360430473</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.232138530436144</v>
+        <v>0.3863531501321834</v>
       </c>
       <c r="B21">
-        <v>1.257066589547182</v>
+        <v>-1.496067083836357</v>
       </c>
       <c r="C21">
-        <v>1.447367682192227</v>
+        <v>-1.754257765535208</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.132416836912676</v>
+        <v>0.1557001221104436</v>
       </c>
       <c r="B22">
-        <v>1.202378297521311</v>
+        <v>-1.009738999529804</v>
       </c>
       <c r="C22">
-        <v>0.5132715932191998</v>
+        <v>-1.093130700070301</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8136263005488921</v>
+        <v>1.399357579214314</v>
       </c>
       <c r="B23">
-        <v>-1.334706360885788</v>
+        <v>0.6001383164378876</v>
       </c>
       <c r="C23">
-        <v>-0.5061141867933605</v>
+        <v>1.206865051354737</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2021920176244158</v>
+        <v>0.6665698553733722</v>
       </c>
       <c r="B24">
-        <v>-0.914757731380346</v>
+        <v>0.2600139522315697</v>
       </c>
       <c r="C24">
-        <v>0.04550666333910797</v>
+        <v>1.109243461927203</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9532119974475574</v>
+        <v>-0.7282395040195417</v>
       </c>
       <c r="B25">
-        <v>0.01931791627603306</v>
+        <v>-0.2776251123355579</v>
       </c>
       <c r="C25">
-        <v>0.9125107132742476</v>
+        <v>0.7147256715240433</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.6462509063665348</v>
+        <v>-0.2327166227213904</v>
       </c>
       <c r="B26">
-        <v>-0.5654536406976149</v>
+        <v>-0.7267022465750536</v>
       </c>
       <c r="C26">
-        <v>0.8817545126563803</v>
+        <v>-0.1129368282335647</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.9736748484328792</v>
+        <v>0.3571796802389316</v>
       </c>
       <c r="B27">
-        <v>1.225918010614085</v>
+        <v>-1.202282266070638</v>
       </c>
       <c r="C27">
-        <v>1.129916228203145</v>
+        <v>-0.2692700080449141</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.269955389613839</v>
+        <v>1.528299809524047</v>
       </c>
       <c r="B28">
-        <v>-0.5476406829569528</v>
+        <v>0.263339804562231</v>
       </c>
       <c r="C28">
-        <v>-0.4790590241915738</v>
+        <v>-1.013066448964469</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.114252418316395</v>
+        <v>1.718720033702933</v>
       </c>
       <c r="B29">
-        <v>-1.720163133169417</v>
+        <v>-1.237838337033749</v>
       </c>
       <c r="C29">
-        <v>1.412457801905023</v>
+        <v>1.321631483426842</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.1732035653388291</v>
+        <v>0.6028931956885202</v>
       </c>
       <c r="B30">
-        <v>-0.6407339199977088</v>
+        <v>1.175787421146778</v>
       </c>
       <c r="C30">
-        <v>-1.167739345245823</v>
+        <v>0.3377863761704438</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.533097444796101</v>
+        <v>-1.307097184192886</v>
       </c>
       <c r="B31">
-        <v>0.2306810051863662</v>
+        <v>1.153016912967576</v>
       </c>
       <c r="C31">
-        <v>-0.5865238196910607</v>
+        <v>1.082026956165814</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.1305586081478369</v>
+        <v>-1.332653987249806</v>
       </c>
       <c r="B32">
-        <v>1.675850033029881</v>
+        <v>-0.1830330410688214</v>
       </c>
       <c r="C32">
-        <v>0.1361833545395543</v>
+        <v>0.9596816870621859</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.852909029603296</v>
+        <v>1.779727713492561</v>
       </c>
       <c r="B33">
-        <v>-0.9694189615512272</v>
+        <v>-1.059272391837077</v>
       </c>
       <c r="C33">
-        <v>0.6553666253071219</v>
+        <v>0.6726646104926025</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.9832948400005366</v>
+        <v>-0.5478606168433097</v>
       </c>
       <c r="B34">
-        <v>-0.420325284343708</v>
+        <v>0.9190075285741111</v>
       </c>
       <c r="C34">
-        <v>-1.103853601369342</v>
+        <v>0.3357253190796843</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.5385404285811016</v>
+        <v>1.066370655274612</v>
       </c>
       <c r="B35">
-        <v>-1.073102000684135</v>
+        <v>0.7871144632259952</v>
       </c>
       <c r="C35">
-        <v>-0.9122398337669759</v>
+        <v>0.5888031461378185</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.620316881827269</v>
+        <v>-1.096043175722782</v>
       </c>
       <c r="B36">
-        <v>-1.034033977928101</v>
+        <v>-0.5147060166334083</v>
       </c>
       <c r="C36">
-        <v>0.627425246482273</v>
+        <v>1.995707858020469</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.36439583863087</v>
+        <v>-1.497809885193738</v>
       </c>
       <c r="B37">
-        <v>1.216597208772918</v>
+        <v>0.8543764631810783</v>
       </c>
       <c r="C37">
-        <v>-0.716798269535511</v>
+        <v>-1.447069289553896</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.498429750368401</v>
+        <v>0.5368283717868004</v>
       </c>
       <c r="B38">
-        <v>0.9306004144035546</v>
+        <v>-1.294267325066486</v>
       </c>
       <c r="C38">
-        <v>0.601097057976393</v>
+        <v>-0.7803875760845319</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.067077871791097</v>
+        <v>1.57659392081795</v>
       </c>
       <c r="B39">
-        <v>-1.175375764391035</v>
+        <v>0.9846338594515103</v>
       </c>
       <c r="C39">
-        <v>-1.231868836107075</v>
+        <v>0.1046825898951713</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.7927447247063485</v>
+        <v>-0.6422057713885764</v>
       </c>
       <c r="B40">
-        <v>0.1119117072290967</v>
+        <v>-0.8823051460868613</v>
       </c>
       <c r="C40">
-        <v>0.9893276855006136</v>
+        <v>-0.930504691244963</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.871666229115223</v>
+        <v>-1.776764010417471</v>
       </c>
       <c r="B41">
-        <v>0.1103822198398585</v>
+        <v>-0.4474721377064674</v>
       </c>
       <c r="C41">
-        <v>0.7902836779435647</v>
+        <v>0.1735526582076801</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.1214892526305248</v>
+        <v>0.2867614655911849</v>
       </c>
       <c r="B42">
-        <v>-0.2376616040057904</v>
+        <v>-0.9417318208790352</v>
       </c>
       <c r="C42">
-        <v>1.209646799439566</v>
+        <v>-0.5371284219367251</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.1848456166124655</v>
+        <v>-1.325854143525743</v>
       </c>
       <c r="B43">
-        <v>1.88282939440547</v>
+        <v>0.7530196718500474</v>
       </c>
       <c r="C43">
-        <v>-0.8103348028268907</v>
+        <v>-0.05177969497272868</v>
       </c>
     </row>
   </sheetData>
@@ -3812,464 +3812,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.118778878711541</v>
+        <v>-1.283693692023524</v>
       </c>
       <c r="B2">
-        <v>0.5310603883221059</v>
+        <v>-0.06799626151566483</v>
       </c>
       <c r="C2">
-        <v>-0.7828346556816949</v>
+        <v>0.2237865897669835</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.205590283654206</v>
+        <v>-0.03385440784264057</v>
       </c>
       <c r="B3">
-        <v>-0.0467418415203819</v>
+        <v>0.09372984306016026</v>
       </c>
       <c r="C3">
-        <v>0.4467799288722583</v>
+        <v>1.883650885369798</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.2647639848491747</v>
+        <v>-1.04531890478846</v>
       </c>
       <c r="B4">
-        <v>0.08759424582693054</v>
+        <v>-0.8378393281867195</v>
       </c>
       <c r="C4">
-        <v>-1.930159121030147</v>
+        <v>0.2899815556076176</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.166116988581545</v>
+        <v>1.468403060998511</v>
       </c>
       <c r="B5">
-        <v>-1.696422791876286</v>
+        <v>-1.223539593678863</v>
       </c>
       <c r="C5">
-        <v>0.1684548877490838</v>
+        <v>0.7006407707973117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.255066938412528</v>
+        <v>-0.5893636568221553</v>
       </c>
       <c r="B6">
-        <v>0.7385291892630271</v>
+        <v>0.1403453149064506</v>
       </c>
       <c r="C6">
-        <v>-1.312060387964265</v>
+        <v>-1.166158586072704</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.62686587174839</v>
+        <v>1.009894968976551</v>
       </c>
       <c r="B7">
-        <v>-0.3726324701964634</v>
+        <v>0.4422320637175982</v>
       </c>
       <c r="C7">
-        <v>1.713495529781875</v>
+        <v>0.1757905152395087</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.53027446824355</v>
+        <v>-1.256864334764242</v>
       </c>
       <c r="B8">
-        <v>-0.5625238310228706</v>
+        <v>-0.4800751096589875</v>
       </c>
       <c r="C8">
-        <v>-0.0989339922331719</v>
+        <v>0.0006250815047139352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.552547468908068</v>
+        <v>-1.452217053941862</v>
       </c>
       <c r="B9">
-        <v>0.3262288722831381</v>
+        <v>0.7179855386639036</v>
       </c>
       <c r="C9">
-        <v>0.6626147091026514</v>
+        <v>0.2642887014529686</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.9457346699924951</v>
+        <v>1.011245363595293</v>
       </c>
       <c r="B10">
-        <v>0.9248030651459723</v>
+        <v>1.374424014624873</v>
       </c>
       <c r="C10">
-        <v>0.9319867339299002</v>
+        <v>0.53111732308773</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.250567238717919</v>
+        <v>1.25480125063079</v>
       </c>
       <c r="B11">
-        <v>-0.2516494911899188</v>
+        <v>-0.1602673655093237</v>
       </c>
       <c r="C11">
-        <v>0.1502748795392301</v>
+        <v>-1.252672436282435</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.9482061648180381</v>
+        <v>0.8726807757704913</v>
       </c>
       <c r="B12">
-        <v>0.1774341180154784</v>
+        <v>0.4142479992223946</v>
       </c>
       <c r="C12">
-        <v>0.4815991382309674</v>
+        <v>-1.278350184649573</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.01391674103104365</v>
+        <v>0.4098780248220516</v>
       </c>
       <c r="B13">
-        <v>-0.8619225067176649</v>
+        <v>-0.52142939353406</v>
       </c>
       <c r="C13">
-        <v>0.9970112260633135</v>
+        <v>-2.190632758420928</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.2470275293660432</v>
+        <v>0.3409870038546102</v>
       </c>
       <c r="B14">
-        <v>0.9302318025186772</v>
+        <v>1.309921742649104</v>
       </c>
       <c r="C14">
-        <v>1.60473400577805</v>
+        <v>-0.8737471276520732</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.70579101069289</v>
+        <v>0.4816938698082876</v>
       </c>
       <c r="B15">
-        <v>-0.8751112097171521</v>
+        <v>-1.042200315275148</v>
       </c>
       <c r="C15">
-        <v>-0.7373882081998461</v>
+        <v>-0.8080926098986133</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.8449881926053723</v>
+        <v>0.7940814883421483</v>
       </c>
       <c r="B16">
-        <v>0.6923830062147716</v>
+        <v>0.8670944428649907</v>
       </c>
       <c r="C16">
-        <v>0.495533595794285</v>
+        <v>-0.4247336919144228</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.8864389268895766</v>
+        <v>0.5448835605595024</v>
       </c>
       <c r="B17">
-        <v>1.534407394687042</v>
+        <v>1.331091268260676</v>
       </c>
       <c r="C17">
-        <v>-0.04037639190870522</v>
+        <v>-0.7703157524621425</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.039681726859604</v>
+        <v>0.6124614559024965</v>
       </c>
       <c r="B18">
-        <v>0.5571386248684185</v>
+        <v>0.3831898615157228</v>
       </c>
       <c r="C18">
-        <v>-0.5274662285368417</v>
+        <v>-0.832375067200617</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.327692559578189</v>
+        <v>-1.507094873167721</v>
       </c>
       <c r="B19">
-        <v>0.9276632706921362</v>
+        <v>0.187353920587907</v>
       </c>
       <c r="C19">
-        <v>-0.3002940772966246</v>
+        <v>-1.256133415612079</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.21177770998741</v>
+        <v>-1.023937360805718</v>
       </c>
       <c r="B20">
-        <v>-1.186727532692871</v>
+        <v>-1.845228080881195</v>
       </c>
       <c r="C20">
-        <v>-1.426424688187892</v>
+        <v>-0.5213628030547924</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.201995791597717</v>
+        <v>0.8092015427206382</v>
       </c>
       <c r="B21">
-        <v>1.375816800512804</v>
+        <v>1.522947321585901</v>
       </c>
       <c r="C21">
-        <v>0.1695398620630484</v>
+        <v>0.7607889078472835</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4940802808006827</v>
+        <v>0.2538021850409594</v>
       </c>
       <c r="B22">
-        <v>0.1912544848563733</v>
+        <v>0.118354232306256</v>
       </c>
       <c r="C22">
-        <v>-0.5969099719351499</v>
+        <v>1.043675674212684</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5529645644599981</v>
+        <v>-0.4953446227757586</v>
       </c>
       <c r="B23">
-        <v>-0.84630064101862</v>
+        <v>-1.03515541075026</v>
       </c>
       <c r="C23">
-        <v>-0.9090615510664699</v>
+        <v>1.702191337753703</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.5303293448083797</v>
+        <v>0.5846531871376029</v>
       </c>
       <c r="B24">
-        <v>-1.918374371195351</v>
+        <v>-0.9907327687476595</v>
       </c>
       <c r="C24">
-        <v>1.044139559216765</v>
+        <v>1.789171469578171</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.644020502969697</v>
+        <v>-1.290192755085575</v>
       </c>
       <c r="B25">
-        <v>-0.6844393075403121</v>
+        <v>-0.5837218506659281</v>
       </c>
       <c r="C25">
-        <v>0.2070651606070586</v>
+        <v>0.1245343323340758</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.209481622111776</v>
+        <v>-0.9546877296448502</v>
       </c>
       <c r="B26">
-        <v>0.1364620342385381</v>
+        <v>0.07544727024107431</v>
       </c>
       <c r="C26">
-        <v>0.154916513765369</v>
+        <v>0.6142647969179783</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.8545261563904869</v>
+        <v>-1.512791434627669</v>
       </c>
       <c r="B27">
-        <v>1.047548271607782</v>
+        <v>0.05199979178786008</v>
       </c>
       <c r="C27">
-        <v>-1.751974762053342</v>
+        <v>-0.3472478392098589</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7821999372731564</v>
+        <v>0.5892997739717775</v>
       </c>
       <c r="B28">
-        <v>-0.7211469421898278</v>
+        <v>-1.093159602079886</v>
       </c>
       <c r="C28">
-        <v>-1.115547364630233</v>
+        <v>0.6489825891489734</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.3976503258718322</v>
+        <v>0.296924335475972</v>
       </c>
       <c r="B29">
-        <v>1.199047875999239</v>
+        <v>1.528075913191762</v>
       </c>
       <c r="C29">
-        <v>0.4446518918626037</v>
+        <v>2.345660099927049</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.8780164155105629</v>
+        <v>0.09827748438861598</v>
       </c>
       <c r="B30">
-        <v>-0.09084252833444396</v>
+        <v>0.3121982541627612</v>
       </c>
       <c r="C30">
-        <v>1.495797241034645</v>
+        <v>1.005190319159555</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.38865834683922</v>
+        <v>-1.523499446438626</v>
       </c>
       <c r="B31">
-        <v>-0.01291070368152758</v>
+        <v>0.004833037567665059</v>
       </c>
       <c r="C31">
-        <v>0.04456698213691925</v>
+        <v>0.5372875371883963</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.02817900723796772</v>
+        <v>-0.04856627378002462</v>
       </c>
       <c r="B32">
-        <v>-0.4770201464425775</v>
+        <v>-0.9886084574164109</v>
       </c>
       <c r="C32">
-        <v>-1.012816754471057</v>
+        <v>-1.102535357433992</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.907692530975773</v>
+        <v>1.831811551868163</v>
       </c>
       <c r="B33">
-        <v>-0.6371639723274267</v>
+        <v>-0.3391488328660351</v>
       </c>
       <c r="C33">
-        <v>0.3850866863603331</v>
+        <v>-0.2846611294470359</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.238116824985487</v>
+        <v>1.315385701139854</v>
       </c>
       <c r="B34">
-        <v>-1.654003217324615</v>
+        <v>-1.729384017662735</v>
       </c>
       <c r="C34">
-        <v>-0.8294337225738946</v>
+        <v>0.1554281514442809</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.2558554914821949</v>
+        <v>1.040210755934201</v>
       </c>
       <c r="B35">
-        <v>-1.659639488283104</v>
+        <v>-0.7155252020595674</v>
       </c>
       <c r="C35">
-        <v>1.360597603661996</v>
+        <v>1.066664196207039</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.09872395068717142</v>
+        <v>0.4320353998056856</v>
       </c>
       <c r="B36">
-        <v>-2.144430746283081</v>
+        <v>-1.816867636439873</v>
       </c>
       <c r="C36">
-        <v>0.4027321837150322</v>
+        <v>0.7668235179012634</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.9705213224792072</v>
+        <v>-0.746578345410556</v>
       </c>
       <c r="B37">
-        <v>0.1219383638001807</v>
+        <v>-0.1361436101038894</v>
       </c>
       <c r="C37">
-        <v>0.4331243072496406</v>
+        <v>-1.48462616521424</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.582750366750386</v>
+        <v>1.205225292563462</v>
       </c>
       <c r="B38">
-        <v>0.9024178911476535</v>
+        <v>0.6580582291320187</v>
       </c>
       <c r="C38">
-        <v>-0.345098409140173</v>
+        <v>-0.3047216012717816</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.157603457480463</v>
+        <v>0.8200390754359111</v>
       </c>
       <c r="B39">
-        <v>1.875542993732053</v>
+        <v>1.890473033268788</v>
       </c>
       <c r="C39">
-        <v>0.3929353312685644</v>
+        <v>-0.554937536706112</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.132685445927395</v>
+        <v>-2.155348642651916</v>
       </c>
       <c r="B40">
-        <v>1.42630209583486</v>
+        <v>0.5499575268260248</v>
       </c>
       <c r="C40">
-        <v>-1.701869564358714</v>
+        <v>0.3474018344801045</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.191908144646731</v>
+        <v>-0.8438006080137097</v>
       </c>
       <c r="B41">
-        <v>0.9223304563219474</v>
+        <v>1.515515189570788</v>
       </c>
       <c r="C41">
-        <v>1.442623480543058</v>
+        <v>0.1936836834725018</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.5796449801006159</v>
+        <v>-0.4449600772567445</v>
       </c>
       <c r="B42">
-        <v>0.7960667831764208</v>
+        <v>1.585982077791879</v>
       </c>
       <c r="C42">
-        <v>1.624069472301288</v>
+        <v>-0.329748110724422</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.7882686774864487</v>
+        <v>0.1302371110981759</v>
       </c>
       <c r="B43">
-        <v>-0.7221982895110529</v>
+        <v>-1.468435050474353</v>
       </c>
       <c r="C43">
-        <v>-1.835681059359714</v>
+        <v>-1.388577697171868</v>
       </c>
     </row>
   </sheetData>
@@ -4298,464 +4298,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.5145371172620652</v>
+        <v>-0.3967646623831849</v>
       </c>
       <c r="B2">
-        <v>1.66169642436033</v>
+        <v>1.637968027528866</v>
       </c>
       <c r="C2">
-        <v>-0.4416838393331927</v>
+        <v>-0.2668498201906842</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.6284663141422869</v>
+        <v>-0.6007569056987394</v>
       </c>
       <c r="B3">
-        <v>0.8823664094757332</v>
+        <v>0.8517566398324422</v>
       </c>
       <c r="C3">
-        <v>0.3240391997763932</v>
+        <v>0.9507276726564521</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.214510072119119</v>
+        <v>0.3982685653078526</v>
       </c>
       <c r="B4">
-        <v>1.027752101766648</v>
+        <v>0.4939445143088882</v>
       </c>
       <c r="C4">
-        <v>1.806553015421304</v>
+        <v>1.148887456008657</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.4955354161781194</v>
+        <v>-0.5234237487339954</v>
       </c>
       <c r="B5">
-        <v>0.3119713857706082</v>
+        <v>0.2282848218900992</v>
       </c>
       <c r="C5">
-        <v>0.389379911054325</v>
+        <v>1.125697335761816</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2847861407668503</v>
+        <v>0.2235682521097373</v>
       </c>
       <c r="B6">
-        <v>-1.099133228923858</v>
+        <v>-0.676163255490173</v>
       </c>
       <c r="C6">
-        <v>-1.464338986799092</v>
+        <v>-0.9348890015268482</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.515159067191252</v>
+        <v>-1.575738726066548</v>
       </c>
       <c r="B7">
-        <v>-0.6305673739369476</v>
+        <v>-0.469839460700851</v>
       </c>
       <c r="C7">
-        <v>0.108887448502694</v>
+        <v>0.6530548014741352</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2088061116021424</v>
+        <v>0.3969066984092052</v>
       </c>
       <c r="B8">
-        <v>1.791315985754915</v>
+        <v>1.627623980024428</v>
       </c>
       <c r="C8">
-        <v>0.6591780986970173</v>
+        <v>-0.6346822281489473</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.3452979496127326</v>
+        <v>0.3610019187687841</v>
       </c>
       <c r="B9">
-        <v>-0.0151719915569176</v>
+        <v>-0.244859077600338</v>
       </c>
       <c r="C9">
-        <v>-0.02142597938450156</v>
+        <v>-0.4238484759603925</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.054501950782784</v>
+        <v>1.169147059241995</v>
       </c>
       <c r="B10">
-        <v>0.1033047375938542</v>
+        <v>-0.4400876112197498</v>
       </c>
       <c r="C10">
-        <v>1.372013148140098</v>
+        <v>-0.3295508840582984</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.9373186747479948</v>
+        <v>-1.034378432996668</v>
       </c>
       <c r="B11">
-        <v>0.1776397994290281</v>
+        <v>0.9503647975368892</v>
       </c>
       <c r="C11">
-        <v>-1.374903040094835</v>
+        <v>-0.9505945359475686</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.2926866537345476</v>
+        <v>0.1319986484573588</v>
       </c>
       <c r="B12">
-        <v>-2.308247552869172</v>
+        <v>-2.1583790700219</v>
       </c>
       <c r="C12">
-        <v>0.4019509929462532</v>
+        <v>0.3841025697283016</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.769526167586803</v>
+        <v>-1.849664582079938</v>
       </c>
       <c r="B13">
-        <v>0.08581792141013772</v>
+        <v>0.4566080685016137</v>
       </c>
       <c r="C13">
-        <v>-1.029984798634848</v>
+        <v>0.4729100081647238</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.2285377272846898</v>
+        <v>-0.2306293049520892</v>
       </c>
       <c r="B14">
-        <v>-0.310071360126662</v>
+        <v>-0.4614366149569493</v>
       </c>
       <c r="C14">
-        <v>0.4936880760517751</v>
+        <v>-0.4783641740113426</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4323572556275184</v>
+        <v>0.4519615891754916</v>
       </c>
       <c r="B15">
-        <v>0.1709928240482342</v>
+        <v>-0.3161462784796955</v>
       </c>
       <c r="C15">
-        <v>1.114450036108346</v>
+        <v>0.9896904496536656</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.5761482451594845</v>
+        <v>-0.6230596015516783</v>
       </c>
       <c r="B16">
-        <v>-1.08083242815894</v>
+        <v>-1.043075825682271</v>
       </c>
       <c r="C16">
-        <v>-0.8071918384753682</v>
+        <v>-1.15065423317925</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.6065345268455342</v>
+        <v>0.4780468598946329</v>
       </c>
       <c r="B17">
-        <v>-2.009027184544574</v>
+        <v>-1.753397901213015</v>
       </c>
       <c r="C17">
-        <v>-0.6363805098558272</v>
+        <v>-0.3656467961942363</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.4345786540369799</v>
+        <v>0.1886014227548705</v>
       </c>
       <c r="B18">
-        <v>-2.372273913219915</v>
+        <v>-1.947435791616255</v>
       </c>
       <c r="C18">
-        <v>-1.082911727576866</v>
+        <v>-1.35312823532496</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.716285167349038</v>
+        <v>0.745637846123601</v>
       </c>
       <c r="B19">
-        <v>-0.9434176566452901</v>
+        <v>-1.371604196801703</v>
       </c>
       <c r="C19">
-        <v>1.560953163337014</v>
+        <v>-0.6922068081487657</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.2069909280156342</v>
+        <v>0.1606254193481518</v>
       </c>
       <c r="B20">
-        <v>-0.1467865403560407</v>
+        <v>-0.1015271007368977</v>
       </c>
       <c r="C20">
-        <v>-0.5599428571169413</v>
+        <v>-1.11150483059186</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.5128538056449893</v>
+        <v>0.4677911099046366</v>
       </c>
       <c r="B21">
-        <v>-1.904207913840149</v>
+        <v>-2.234926040850887</v>
       </c>
       <c r="C21">
-        <v>1.356540708495064</v>
+        <v>-0.8459045302779892</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.9513771630869174</v>
+        <v>0.9894809815492844</v>
       </c>
       <c r="B22">
-        <v>0.9926383100875524</v>
+        <v>0.8771298168178998</v>
       </c>
       <c r="C22">
-        <v>0.4459540855954146</v>
+        <v>-0.3424935132714511</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.436216597673329</v>
+        <v>1.477864780578058</v>
       </c>
       <c r="B23">
-        <v>0.7051463348723512</v>
+        <v>1.158061128997796</v>
       </c>
       <c r="C23">
-        <v>-1.807522252721036</v>
+        <v>-0.1647264968388062</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3532950368655403</v>
+        <v>0.335335395553111</v>
       </c>
       <c r="B24">
-        <v>1.158680360303123</v>
+        <v>1.283844125589406</v>
       </c>
       <c r="C24">
-        <v>-1.046386626904255</v>
+        <v>0.7190947752877416</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.099735413992222</v>
+        <v>1.017751392204811</v>
       </c>
       <c r="B25">
-        <v>1.191471151606208</v>
+        <v>1.162053252160536</v>
       </c>
       <c r="C25">
-        <v>-1.07865932815901</v>
+        <v>1.063493640193997</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.701751451587362</v>
+        <v>1.70918461963724</v>
       </c>
       <c r="B26">
-        <v>0.9861325303178929</v>
+        <v>0.995458240812452</v>
       </c>
       <c r="C26">
-        <v>-0.4156496506843429</v>
+        <v>-0.8957172417557091</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.566135978298856</v>
+        <v>1.639635953605043</v>
       </c>
       <c r="B27">
-        <v>0.9556285773396545</v>
+        <v>0.6177302369814105</v>
       </c>
       <c r="C27">
-        <v>0.1076855610134182</v>
+        <v>0.4932116711580686</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.690255330192871</v>
+        <v>1.54059798440691</v>
       </c>
       <c r="B28">
-        <v>-0.2383499359619319</v>
+        <v>0.1878735779252385</v>
       </c>
       <c r="C28">
-        <v>-1.368843674765192</v>
+        <v>-1.144171558024478</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.452904016638641</v>
+        <v>1.472935087581849</v>
       </c>
       <c r="B29">
-        <v>-0.4978948090531251</v>
+        <v>-0.3841795321078212</v>
       </c>
       <c r="C29">
-        <v>-0.6013468619643783</v>
+        <v>1.329603874884561</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.1842854519110741</v>
+        <v>0.1169406184788043</v>
       </c>
       <c r="B30">
-        <v>0.5423989105132418</v>
+        <v>0.334011149509758</v>
       </c>
       <c r="C30">
-        <v>-0.2693007179576243</v>
+        <v>1.654658236731474</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.226834745859078</v>
+        <v>-0.2074541638556167</v>
       </c>
       <c r="B31">
-        <v>-0.1886057677802913</v>
+        <v>-0.6100385786398299</v>
       </c>
       <c r="C31">
-        <v>1.288797731419421</v>
+        <v>2.509767850499644</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.3237793807672931</v>
+        <v>-0.3930277523470727</v>
       </c>
       <c r="B32">
-        <v>0.1283296571589331</v>
+        <v>-0.05828040616820836</v>
       </c>
       <c r="C32">
-        <v>-0.1062970784958671</v>
+        <v>1.377368179029445</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.380975755987368</v>
+        <v>-1.383900605023509</v>
       </c>
       <c r="B33">
-        <v>0.3027166348478779</v>
+        <v>0.2251190238625353</v>
       </c>
       <c r="C33">
-        <v>0.3172077566992033</v>
+        <v>0.6733694488951648</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.6220497999866618</v>
+        <v>-0.4688996409690482</v>
       </c>
       <c r="B34">
-        <v>0.7155873242149148</v>
+        <v>1.470331260381362</v>
       </c>
       <c r="C34">
-        <v>-1.184533545594409</v>
+        <v>-1.299255358119619</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-2.014410557760775</v>
+        <v>-1.904746682425327</v>
       </c>
       <c r="B35">
-        <v>-0.06083836465719455</v>
+        <v>-0.2222109528914673</v>
       </c>
       <c r="C35">
-        <v>0.6092113076913251</v>
+        <v>0.3846118882296343</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.650573013899027</v>
+        <v>-1.666827030555168</v>
       </c>
       <c r="B36">
-        <v>0.3792912539267259</v>
+        <v>0.6301307994138209</v>
       </c>
       <c r="C36">
-        <v>-0.2520368199583625</v>
+        <v>0.03703325815140231</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.2444136658383364</v>
+        <v>-0.2826124519561204</v>
       </c>
       <c r="B37">
-        <v>-0.6253234949646802</v>
+        <v>-0.8761893131701113</v>
       </c>
       <c r="C37">
-        <v>2.061074670846615</v>
+        <v>0.877871508131858</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.350642553186241</v>
+        <v>-1.32819033993137</v>
       </c>
       <c r="B38">
-        <v>-0.05879525609583082</v>
+        <v>0.04170033780589701</v>
       </c>
       <c r="C38">
-        <v>-0.5215152056703537</v>
+        <v>-1.496926573134675</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.9495022357709054</v>
+        <v>-0.9983181798576241</v>
       </c>
       <c r="B39">
-        <v>-1.064136947378625</v>
+        <v>-0.6467065463132772</v>
       </c>
       <c r="C39">
-        <v>-1.163988083959605</v>
+        <v>-0.2438729273911884</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.715897404003927</v>
+        <v>1.769470485204606</v>
       </c>
       <c r="B40">
-        <v>-0.3743984853101349</v>
+        <v>-0.4364062533938623</v>
       </c>
       <c r="C40">
-        <v>1.047343617155865</v>
+        <v>0.774824664844887</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.1876896276592027</v>
+        <v>-0.07297732933896291</v>
       </c>
       <c r="B41">
-        <v>1.373473196194552</v>
+        <v>1.316091050075593</v>
       </c>
       <c r="C41">
-        <v>1.206160446568158</v>
+        <v>-1.073782378406283</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.943158594447664</v>
+        <v>-0.8768253887567574</v>
       </c>
       <c r="B42">
-        <v>-0.3545563358108559</v>
+        <v>-0.7042418711262529</v>
       </c>
       <c r="C42">
-        <v>1.276907242015043</v>
+        <v>0.5681079264418363</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.9027843996733629</v>
+        <v>-0.8245571588166171</v>
       </c>
       <c r="B43">
-        <v>0.6382847101986203</v>
+        <v>0.6110468292245861</v>
       </c>
       <c r="C43">
-        <v>-0.7131327934288387</v>
+        <v>-1.989316615424114</v>
       </c>
     </row>
   </sheetData>
@@ -4784,464 +4784,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.5529604390970088</v>
+        <v>-0.9075501524229961</v>
       </c>
       <c r="B2">
-        <v>1.094648353076213</v>
+        <v>0.9151336493924276</v>
       </c>
       <c r="C2">
-        <v>0.5190613813352678</v>
+        <v>-1.115637605339525</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3841780166036161</v>
+        <v>-0.8833915857421044</v>
       </c>
       <c r="B3">
-        <v>1.140205375988822</v>
+        <v>0.4833485960923513</v>
       </c>
       <c r="C3">
-        <v>-0.428827344775061</v>
+        <v>-1.283537573077751</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.03128780091312355</v>
+        <v>-0.1515626814310628</v>
       </c>
       <c r="B4">
-        <v>0.2202117961337108</v>
+        <v>0.6950429202482575</v>
       </c>
       <c r="C4">
-        <v>0.6250651069922342</v>
+        <v>0.3107589017757781</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.114330459173968</v>
+        <v>0.8207311050998666</v>
       </c>
       <c r="B5">
-        <v>-0.8795852125942465</v>
+        <v>-1.059229979227477</v>
       </c>
       <c r="C5">
-        <v>-1.108946898295854</v>
+        <v>0.5096293050946319</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.5414548186248874</v>
+        <v>0.5044523446354124</v>
       </c>
       <c r="B6">
-        <v>-0.709957969437088</v>
+        <v>-1.557291563635838</v>
       </c>
       <c r="C6">
-        <v>-1.443402925096117</v>
+        <v>-0.2448915226358725</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.2413752714220356</v>
+        <v>0.7501173285882557</v>
       </c>
       <c r="B7">
-        <v>-0.9623899926421675</v>
+        <v>-0.4675005340329736</v>
       </c>
       <c r="C7">
-        <v>0.2033900872945438</v>
+        <v>0.9468525849441066</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.5999943927768735</v>
+        <v>-0.4148949639355788</v>
       </c>
       <c r="B8">
-        <v>0.5045617505550193</v>
+        <v>1.486926672926284</v>
       </c>
       <c r="C8">
-        <v>1.54088194064708</v>
+        <v>-0.0840910404670782</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.052777039325047</v>
+        <v>-1.218358535967558</v>
       </c>
       <c r="B9">
-        <v>1.406609060480378</v>
+        <v>0.7946905171954837</v>
       </c>
       <c r="C9">
-        <v>0.5405629553493488</v>
+        <v>-0.4963389615329902</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3153886149854601</v>
+        <v>-0.653439081171319</v>
       </c>
       <c r="B10">
-        <v>0.6046835134131128</v>
+        <v>0.8413405473162513</v>
       </c>
       <c r="C10">
-        <v>0.5615614931421675</v>
+        <v>-1.066147882866018</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.2857921781574696</v>
+        <v>0.7102327674992986</v>
       </c>
       <c r="B11">
-        <v>-0.8319747970380248</v>
+        <v>0.06724724602222241</v>
       </c>
       <c r="C11">
-        <v>0.8922784428488836</v>
+        <v>1.582925754279978</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.8753414253125679</v>
+        <v>0.9745218344487588</v>
       </c>
       <c r="B12">
-        <v>-1.237510946523265</v>
+        <v>-1.36315388353553</v>
       </c>
       <c r="C12">
-        <v>-0.897945486898038</v>
+        <v>-0.02068384590243686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.3285286460486609</v>
+        <v>0.6984416114103321</v>
       </c>
       <c r="B13">
-        <v>-0.7818212307572292</v>
+        <v>0.8447698749920469</v>
       </c>
       <c r="C13">
-        <v>1.71464104469685</v>
+        <v>1.724905563804117</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3866779123669654</v>
+        <v>0.4009462513080301</v>
       </c>
       <c r="B14">
-        <v>-0.5003792003991876</v>
+        <v>-0.5911710840312889</v>
       </c>
       <c r="C14">
-        <v>-0.3054538951233109</v>
+        <v>0.1716292812290479</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.282840665829035</v>
+        <v>-0.6130045738406619</v>
       </c>
       <c r="B15">
-        <v>0.4617902408693728</v>
+        <v>0.9768296330365097</v>
       </c>
       <c r="C15">
-        <v>1.029217684425975</v>
+        <v>0.5734988009776744</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5553548299122206</v>
+        <v>0.7103019753877837</v>
       </c>
       <c r="B16">
-        <v>-0.9762150742903585</v>
+        <v>-1.854526075537258</v>
       </c>
       <c r="C16">
-        <v>-1.695051115474552</v>
+        <v>0.1689925072816117</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.7214545796262996</v>
+        <v>1.072564410968227</v>
       </c>
       <c r="B17">
-        <v>-1.236325519686674</v>
+        <v>-0.4718595018919556</v>
       </c>
       <c r="C17">
-        <v>0.3033935003426867</v>
+        <v>1.109738174525022</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.8693447164342988</v>
+        <v>0.7055027705459769</v>
       </c>
       <c r="B18">
-        <v>-0.9393765460688508</v>
+        <v>-1.827849293549094</v>
       </c>
       <c r="C18">
-        <v>-1.694121108495613</v>
+        <v>-0.6940993240435359</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.9126683428454111</v>
+        <v>-0.185323950835219</v>
       </c>
       <c r="B19">
-        <v>0.06733826954459325</v>
+        <v>-0.9153783649462645</v>
       </c>
       <c r="C19">
-        <v>-1.016599002426493</v>
+        <v>-1.11192972132103</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.2424639573423287</v>
+        <v>-0.2367815820270254</v>
       </c>
       <c r="B20">
-        <v>0.06665790889305716</v>
+        <v>-1.689956036630778</v>
       </c>
       <c r="C20">
-        <v>-2.08669046017407</v>
+        <v>-1.145065316664352</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.414459392514184</v>
+        <v>-0.1182623642164302</v>
       </c>
       <c r="B21">
-        <v>-0.07334916195576739</v>
+        <v>-1.915090799218323</v>
       </c>
       <c r="C21">
-        <v>-2.406919924529131</v>
+        <v>-1.189670280081423</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.12887916151709</v>
+        <v>-1.476651008477162</v>
       </c>
       <c r="B22">
-        <v>1.4642813654806</v>
+        <v>0.3801758686978339</v>
       </c>
       <c r="C22">
-        <v>-0.1027601365116261</v>
+        <v>0.1254417363798054</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.6276543997714776</v>
+        <v>-0.01971100380222479</v>
       </c>
       <c r="B23">
-        <v>-0.08941102889342563</v>
+        <v>-0.7971885073808235</v>
       </c>
       <c r="C23">
-        <v>-0.1810020341051682</v>
+        <v>1.314303670130648</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.4642353936373924</v>
+        <v>-1.045980326250001</v>
       </c>
       <c r="B24">
-        <v>1.143119300469234</v>
+        <v>0.8407280824315829</v>
       </c>
       <c r="C24">
-        <v>1.363010457333808</v>
+        <v>1.799995264867376</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.4296098620527889</v>
+        <v>-0.930727947206073</v>
       </c>
       <c r="B25">
-        <v>0.8582193504587972</v>
+        <v>-1.003752803116946</v>
       </c>
       <c r="C25">
-        <v>-0.8063519041647665</v>
+        <v>0.7683330615803594</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.8607047386203618</v>
+        <v>-0.8200853143435831</v>
       </c>
       <c r="B26">
-        <v>0.756790680936547</v>
+        <v>-0.7970293225032989</v>
       </c>
       <c r="C26">
-        <v>-0.7916997611447685</v>
+        <v>0.2725676645225734</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.6545641842560147</v>
+        <v>-1.600416066054515</v>
       </c>
       <c r="B27">
-        <v>1.639649936027446</v>
+        <v>0.1830458460164993</v>
       </c>
       <c r="C27">
-        <v>0.02375194580260899</v>
+        <v>-0.1258430285499852</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5221786731112475</v>
+        <v>0.01058198840560323</v>
       </c>
       <c r="B28">
-        <v>-0.03529720432074062</v>
+        <v>-0.6084815806103371</v>
       </c>
       <c r="C28">
-        <v>-0.3789559282340607</v>
+        <v>0.3402843097988361</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.7720552994267467</v>
+        <v>-1.534455271422847</v>
       </c>
       <c r="B29">
-        <v>1.594655086267062</v>
+        <v>0.2079488717053924</v>
       </c>
       <c r="C29">
-        <v>0.4427518527200796</v>
+        <v>1.093227238473974</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.6802545858507786</v>
+        <v>-0.07543809209431535</v>
       </c>
       <c r="B30">
-        <v>0.02322075250553915</v>
+        <v>-0.5045231526776094</v>
       </c>
       <c r="C30">
-        <v>0.07761586067254886</v>
+        <v>1.727070704844059</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.656959030031657</v>
+        <v>1.41909585345049</v>
       </c>
       <c r="B31">
-        <v>-1.32030629731272</v>
+        <v>1.070329956891694</v>
       </c>
       <c r="C31">
-        <v>1.05628737995527</v>
+        <v>0.7483956849980937</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.034854064658817</v>
+        <v>0.5299146428504351</v>
       </c>
       <c r="B32">
-        <v>-0.6134642452355307</v>
+        <v>0.4871836922905245</v>
       </c>
       <c r="C32">
-        <v>0.5376120361784642</v>
+        <v>1.304245546659517</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>2.053856921324125</v>
+        <v>1.164259744853064</v>
       </c>
       <c r="B33">
-        <v>-0.9207427075983029</v>
+        <v>1.26848672284546</v>
       </c>
       <c r="C33">
-        <v>0.7958125211118385</v>
+        <v>0.4390879333823241</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.202023229807029</v>
+        <v>1.683998425429221</v>
       </c>
       <c r="B34">
-        <v>-1.397378108370624</v>
+        <v>1.137494233888788</v>
       </c>
       <c r="C34">
-        <v>1.305842395583269</v>
+        <v>-0.0924029170149184</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.225659576954674</v>
+        <v>1.825609982917216</v>
       </c>
       <c r="B35">
-        <v>-1.588464278023454</v>
+        <v>1.213738784864509</v>
       </c>
       <c r="C35">
-        <v>1.309563149653594</v>
+        <v>-0.4535820723231135</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.187718600568042</v>
+        <v>-1.207751929534914</v>
       </c>
       <c r="B36">
-        <v>1.321205634787073</v>
+        <v>0.8784203554240237</v>
       </c>
       <c r="C36">
-        <v>0.6642344099143458</v>
+        <v>-0.4787486044615387</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.31599660797359</v>
+        <v>-1.30442244058746</v>
       </c>
       <c r="B37">
-        <v>0.9808149301585606</v>
+        <v>0.4114731006584603</v>
       </c>
       <c r="C37">
-        <v>0.3021500954392618</v>
+        <v>0.09332786055841433</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.733005617385982</v>
+        <v>0.7366978469434776</v>
       </c>
       <c r="B38">
-        <v>-0.6056267971114854</v>
+        <v>0.376814682263183</v>
       </c>
       <c r="C38">
-        <v>-0.000430288102798885</v>
+        <v>-0.8789073806409019</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.653040431848458</v>
+        <v>1.369189537825995</v>
       </c>
       <c r="B39">
-        <v>-0.8611326245905581</v>
+        <v>1.24732166954712</v>
       </c>
       <c r="C39">
-        <v>0.8259028167909286</v>
+        <v>-1.460578892549401</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.8660569176016369</v>
+        <v>-2.018525758893565</v>
       </c>
       <c r="B40">
-        <v>2.000750875549935</v>
+        <v>-0.5427051369261334</v>
       </c>
       <c r="C40">
-        <v>-0.6646637240477041</v>
+        <v>0.03182232984308182</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.21409989994941</v>
+        <v>-0.7229669764154937</v>
       </c>
       <c r="B41">
-        <v>0.9692955702805737</v>
+        <v>0.9536174916710581</v>
       </c>
       <c r="C41">
-        <v>0.2952193001198277</v>
+        <v>-1.61901604145695</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.066690695757244</v>
+        <v>0.6888251948314115</v>
       </c>
       <c r="B42">
-        <v>-0.5431978764857118</v>
+        <v>-0.7437468291891008</v>
       </c>
       <c r="C42">
-        <v>-1.152401025421376</v>
+        <v>-1.753239222857109</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.457544788509034</v>
+        <v>1.363715989273251</v>
       </c>
       <c r="B43">
-        <v>-1.214802932540234</v>
+        <v>0.9483254322230653</v>
       </c>
       <c r="C43">
-        <v>0.2324151046696301</v>
+        <v>-1.8426226461651</v>
       </c>
     </row>
   </sheetData>
@@ -5270,464 +5270,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.3178920931046761</v>
+        <v>-1.167783581953091</v>
       </c>
       <c r="B2">
-        <v>-1.600304430805604</v>
+        <v>0.3345043690939205</v>
       </c>
       <c r="C2">
-        <v>0.03607466810838728</v>
+        <v>-1.502485580743059</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3542581422786664</v>
+        <v>-1.121832953761096</v>
       </c>
       <c r="B3">
-        <v>-1.37586938882276</v>
+        <v>0.3956490531828518</v>
       </c>
       <c r="C3">
-        <v>0.2923909468420799</v>
+        <v>-1.813748590690581</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.5641148839862858</v>
+        <v>-1.65929201723725</v>
       </c>
       <c r="B4">
-        <v>-1.66379393015973</v>
+        <v>-0.09151130012716591</v>
       </c>
       <c r="C4">
-        <v>-0.5196138201649318</v>
+        <v>-0.991132342534075</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.5067877215931618</v>
+        <v>0.006339650356112675</v>
       </c>
       <c r="B5">
-        <v>0.06928731018371537</v>
+        <v>-0.4299517153860954</v>
       </c>
       <c r="C5">
-        <v>-0.1974663147176277</v>
+        <v>0.7399711314706336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6979244565617025</v>
+        <v>-0.2090168089401968</v>
       </c>
       <c r="B6">
-        <v>0.1450568617535013</v>
+        <v>-0.8319533683823371</v>
       </c>
       <c r="C6">
-        <v>-0.7617087477635076</v>
+        <v>1.642861437983652</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.048171102502899</v>
+        <v>1.543218806867163</v>
       </c>
       <c r="B7">
-        <v>1.604416398044024</v>
+        <v>-0.1713797321594734</v>
       </c>
       <c r="C7">
-        <v>0.08535688107561129</v>
+        <v>0.6413122692127257</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.176797875000563</v>
+        <v>0.1815517642841084</v>
       </c>
       <c r="B8">
-        <v>0.1146469804282764</v>
+        <v>1.173488692724294</v>
       </c>
       <c r="C8">
-        <v>0.7529160736531508</v>
+        <v>-0.03630830242277418</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.2397208899088129</v>
+        <v>0.7785491399491858</v>
       </c>
       <c r="B9">
-        <v>0.8042726537558452</v>
+        <v>-0.09226676855978655</v>
       </c>
       <c r="C9">
-        <v>0.5018577307226918</v>
+        <v>-1.477343204882869</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3485085124918673</v>
+        <v>0.9130562499116209</v>
       </c>
       <c r="B10">
-        <v>1.362379236371976</v>
+        <v>-0.7140723970777513</v>
       </c>
       <c r="C10">
-        <v>-0.2957186620522392</v>
+        <v>0.3041886243818287</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.1549575853495331</v>
+        <v>2.226853700894512</v>
       </c>
       <c r="B11">
-        <v>2.146557827709505</v>
+        <v>0.232926562623038</v>
       </c>
       <c r="C11">
-        <v>1.378176833593831</v>
+        <v>0.1387077603073498</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.066729601588063</v>
+        <v>1.055566547321821</v>
       </c>
       <c r="B12">
-        <v>1.078613323444498</v>
+        <v>0.4635897925826631</v>
       </c>
       <c r="C12">
-        <v>0.3631403249788552</v>
+        <v>1.163935724802338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.154338647805389</v>
+        <v>0.4222080589091893</v>
       </c>
       <c r="B13">
-        <v>1.101522482803372</v>
+        <v>-0.6862039741604076</v>
       </c>
       <c r="C13">
-        <v>-0.9382966093409302</v>
+        <v>0.3947055814028476</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.6479535778862915</v>
+        <v>-1.065115076104834</v>
       </c>
       <c r="B14">
-        <v>-0.7921897836810443</v>
+        <v>0.01471681304435504</v>
       </c>
       <c r="C14">
-        <v>-0.8039365783360378</v>
+        <v>1.390416931487362</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.2222315633196582</v>
+        <v>1.237553503210739</v>
       </c>
       <c r="B15">
-        <v>1.329271344960754</v>
+        <v>0.1545587954200923</v>
       </c>
       <c r="C15">
-        <v>0.6061903625164744</v>
+        <v>0.05074491968029565</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5705357334707047</v>
+        <v>0.5603990129942719</v>
       </c>
       <c r="B16">
-        <v>0.9490339218359691</v>
+        <v>-0.811854713448773</v>
       </c>
       <c r="C16">
-        <v>-0.7537017260481322</v>
+        <v>1.853937541918418</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.3805476008855135</v>
+        <v>-0.01582308803237276</v>
       </c>
       <c r="B17">
-        <v>-0.1228792127683529</v>
+        <v>0.4668406028679965</v>
       </c>
       <c r="C17">
-        <v>0.3220879527889868</v>
+        <v>1.416186910078963</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.1078157604278551</v>
+        <v>-1.494221945265043</v>
       </c>
       <c r="B18">
-        <v>-0.8593663317827386</v>
+        <v>-0.7489683672744445</v>
       </c>
       <c r="C18">
-        <v>-1.740309994822405</v>
+        <v>1.045670541714575</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.8176172351610352</v>
+        <v>-0.2343983276543913</v>
       </c>
       <c r="B19">
-        <v>0.416002179012682</v>
+        <v>-0.974155740840804</v>
       </c>
       <c r="C19">
-        <v>-1.666440626111067</v>
+        <v>0.2471647897905198</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.6908265514260524</v>
+        <v>-1.486325153643355</v>
       </c>
       <c r="B20">
-        <v>-1.050655785409533</v>
+        <v>-0.7783760617876997</v>
       </c>
       <c r="C20">
-        <v>-1.472976184489583</v>
+        <v>0.5237823963994847</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.7358651871469057</v>
+        <v>-0.8973775787946024</v>
       </c>
       <c r="B21">
-        <v>-0.801095088934623</v>
+        <v>-0.1255883026545969</v>
       </c>
       <c r="C21">
-        <v>-0.5256043600750487</v>
+        <v>2.077690138455704</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3085857457320075</v>
+        <v>0.358081911291695</v>
       </c>
       <c r="B22">
-        <v>-0.5906772187587599</v>
+        <v>1.66024168605004</v>
       </c>
       <c r="C22">
-        <v>1.916579049428895</v>
+        <v>1.023398359065757</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-1.159490887656903</v>
+        <v>0.5361937469305277</v>
       </c>
       <c r="B23">
-        <v>0.3320165710459508</v>
+        <v>0.7502697611853544</v>
       </c>
       <c r="C23">
-        <v>0.5058601156647122</v>
+        <v>-0.2182298199745637</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.636738945654423</v>
+        <v>0.6910937799835286</v>
       </c>
       <c r="B24">
-        <v>-0.1003746596151092</v>
+        <v>1.592615628352811</v>
       </c>
       <c r="C24">
-        <v>1.227498302450241</v>
+        <v>-1.281181488489056</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.005615461909058</v>
+        <v>-0.8705563991421986</v>
       </c>
       <c r="B25">
-        <v>-1.259327865637609</v>
+        <v>1.119669929402626</v>
       </c>
       <c r="C25">
-        <v>0.4526325563244248</v>
+        <v>0.2628392818170224</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2688987914753648</v>
+        <v>0.07504078945637596</v>
       </c>
       <c r="B26">
-        <v>-0.6997218526608432</v>
+        <v>1.583648127058276</v>
       </c>
       <c r="C26">
-        <v>1.771449346049676</v>
+        <v>-0.5067924317711844</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.5802389788900458</v>
+        <v>0.7573025298042753</v>
       </c>
       <c r="B27">
-        <v>-0.116938593333983</v>
+        <v>1.379477333922153</v>
       </c>
       <c r="C27">
-        <v>1.839392442318657</v>
+        <v>-0.03770172146231107</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5840204836239756</v>
+        <v>0.3746356397002158</v>
       </c>
       <c r="B28">
-        <v>-0.5452908858465287</v>
+        <v>1.598247632315671</v>
       </c>
       <c r="C28">
-        <v>1.834609228208992</v>
+        <v>0.2513554370627706</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.568673295571746</v>
+        <v>0.801928055802772</v>
       </c>
       <c r="B29">
-        <v>0.1870044882920824</v>
+        <v>1.800533269180163</v>
       </c>
       <c r="C29">
-        <v>1.302139256183899</v>
+        <v>0.09039274149841203</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.338987575224102</v>
+        <v>1.113983537159966</v>
       </c>
       <c r="B30">
-        <v>0.9255936631409932</v>
+        <v>0.03622112466259973</v>
       </c>
       <c r="C30">
-        <v>0.285214783184978</v>
+        <v>-0.8212343322297965</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.069257133841701</v>
+        <v>0.5150205267069561</v>
       </c>
       <c r="B31">
-        <v>0.3358385956146133</v>
+        <v>-0.5016919209598143</v>
       </c>
       <c r="C31">
-        <v>0.1362998252653922</v>
+        <v>-2.184823110962241</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.462848978403511</v>
+        <v>1.520409193328491</v>
       </c>
       <c r="B32">
-        <v>1.529852556632435</v>
+        <v>-1.635381020079389</v>
       </c>
       <c r="C32">
-        <v>-0.3763755265687485</v>
+        <v>-0.2784219635556578</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.417085586843831</v>
+        <v>1.085474063244005</v>
       </c>
       <c r="B33">
-        <v>1.097906807490018</v>
+        <v>-1.438817387504983</v>
       </c>
       <c r="C33">
-        <v>-0.3094283224745867</v>
+        <v>-0.6903042278616743</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.611446444960302</v>
+        <v>1.176804807996139</v>
       </c>
       <c r="B34">
-        <v>1.186825183468192</v>
+        <v>-1.823615838850949</v>
       </c>
       <c r="C34">
-        <v>-0.559741526610905</v>
+        <v>-0.3419501710472318</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.230427700119678</v>
+        <v>-0.2241764874385171</v>
       </c>
       <c r="B35">
-        <v>0.7816742827685959</v>
+        <v>-1.744202213569616</v>
       </c>
       <c r="C35">
-        <v>-1.717014653781055</v>
+        <v>-1.069798504860834</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.9995889450542356</v>
+        <v>-0.8629236927321207</v>
       </c>
       <c r="B36">
-        <v>-0.1286188814248545</v>
+        <v>-0.6341331322496132</v>
       </c>
       <c r="C36">
-        <v>-1.212748696268671</v>
+        <v>-1.862343553575772</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.472893884250861</v>
+        <v>-0.4617091612586897</v>
       </c>
       <c r="B37">
-        <v>-0.6342714364573765</v>
+        <v>-0.09016219626404309</v>
       </c>
       <c r="C37">
-        <v>0.0592097099885661</v>
+        <v>0.4318082752144461</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.385405899012013</v>
+        <v>-0.3467779763210085</v>
       </c>
       <c r="B38">
-        <v>-0.7733610457899458</v>
+        <v>0.6409284937431332</v>
       </c>
       <c r="C38">
-        <v>0.7403663700245056</v>
+        <v>0.4543092369632425</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.389911352718503</v>
+        <v>-0.6454870964928626</v>
       </c>
       <c r="B39">
-        <v>-0.6810673769727166</v>
+        <v>-0.005519047376149894</v>
       </c>
       <c r="C39">
-        <v>0.08841528564446775</v>
+        <v>-0.6385897057196068</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.066611137635632</v>
+        <v>-1.705580622854946</v>
       </c>
       <c r="B40">
-        <v>-2.008284233266925</v>
+        <v>1.38782747923146</v>
       </c>
       <c r="C40">
-        <v>0.63736661609336</v>
+        <v>-0.2713915162942648</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.21244493463275</v>
+        <v>-1.632024197069686</v>
       </c>
       <c r="B41">
-        <v>-1.211735189520558</v>
+        <v>0.1699284766862307</v>
       </c>
       <c r="C41">
-        <v>-0.5826844356680284</v>
+        <v>-0.3046861215821542</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.073556885223539</v>
+        <v>-0.8679400273942383</v>
       </c>
       <c r="B42">
-        <v>0.0637367183580447</v>
+        <v>-0.9649724533502297</v>
       </c>
       <c r="C42">
-        <v>-1.435672562917171</v>
+        <v>-0.03438011578483843</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.612579553987857</v>
+        <v>-0.9629028240131745</v>
       </c>
       <c r="B43">
-        <v>-0.5456861954654491</v>
+        <v>-1.661105971265607</v>
       </c>
       <c r="C43">
-        <v>-1.265785312900159</v>
+        <v>0.217466775736199</v>
       </c>
     </row>
   </sheetData>
@@ -5756,464 +5756,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.3571518549507645</v>
+        <v>-0.3787490518050937</v>
       </c>
       <c r="B2">
-        <v>0.7498531267724302</v>
+        <v>-0.8461234818683441</v>
       </c>
       <c r="C2">
-        <v>-0.8965075405398621</v>
+        <v>0.2959319932748698</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.135217837432543</v>
+        <v>1.086514180596071</v>
       </c>
       <c r="B3">
-        <v>0.4030821701485042</v>
+        <v>-0.3828276527834474</v>
       </c>
       <c r="C3">
-        <v>0.4797824031988675</v>
+        <v>-0.7065164129393733</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.6750009011757244</v>
+        <v>0.74429882581406</v>
       </c>
       <c r="B4">
-        <v>0.1415603873517967</v>
+        <v>-0.106695527821371</v>
       </c>
       <c r="C4">
-        <v>0.8155745104367563</v>
+        <v>-1.141890017538184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.257488019855395</v>
+        <v>-1.11137209555874</v>
       </c>
       <c r="B5">
-        <v>1.825520272979388</v>
+        <v>-1.845377548420748</v>
       </c>
       <c r="C5">
-        <v>1.031268091741441</v>
+        <v>-1.09601597787571</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6604689301543929</v>
+        <v>0.6721048797469991</v>
       </c>
       <c r="B6">
-        <v>-0.7650705689449249</v>
+        <v>1.01568367770333</v>
       </c>
       <c r="C6">
-        <v>1.297326811897505</v>
+        <v>-0.2827865204429811</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.199690716241888</v>
+        <v>1.242111258528271</v>
       </c>
       <c r="B7">
-        <v>1.055790491292252</v>
+        <v>-0.9882057553925899</v>
       </c>
       <c r="C7">
-        <v>-0.4025088151610279</v>
+        <v>0.02072563302777931</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.250784010488272</v>
+        <v>1.206500892559617</v>
       </c>
       <c r="B8">
-        <v>-0.8527849279529371</v>
+        <v>0.8372764364822837</v>
       </c>
       <c r="C8">
-        <v>0.1673258671231426</v>
+        <v>-0.3319000369173901</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.3934781986782804</v>
+        <v>-0.4657088675739237</v>
       </c>
       <c r="B9">
-        <v>0.5822892879827207</v>
+        <v>-0.6495404327747585</v>
       </c>
       <c r="C9">
-        <v>-0.3535935302960617</v>
+        <v>-0.4132237620495547</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.8682711683003485</v>
+        <v>0.7649878856934902</v>
       </c>
       <c r="B10">
-        <v>-1.673016249518423</v>
+        <v>1.576309472113836</v>
       </c>
       <c r="C10">
-        <v>-1.165358502604707</v>
+        <v>1.561711677291657</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.4043488312127835</v>
+        <v>-0.008222095529396402</v>
       </c>
       <c r="B11">
-        <v>-0.2655971993266315</v>
+        <v>0.6381587921347791</v>
       </c>
       <c r="C11">
-        <v>1.671161134242649</v>
+        <v>-0.8025954180035537</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.818339595108931</v>
+        <v>-1.973075581840947</v>
       </c>
       <c r="B12">
-        <v>0.3614175104123515</v>
+        <v>-0.5967038892093536</v>
       </c>
       <c r="C12">
-        <v>-1.341948424788162</v>
+        <v>0.538789897854747</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.741309260223193</v>
+        <v>1.704504268679163</v>
       </c>
       <c r="B13">
-        <v>0.4228720176714817</v>
+        <v>-0.4398922871468148</v>
       </c>
       <c r="C13">
-        <v>-1.116437396021756</v>
+        <v>1.282335501599152</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.341420249179591</v>
+        <v>1.289724281576057</v>
       </c>
       <c r="B14">
-        <v>1.153244940052919</v>
+        <v>-1.214332677579306</v>
       </c>
       <c r="C14">
-        <v>-1.656676048999313</v>
+        <v>1.743711619334355</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.09433081311241283</v>
+        <v>-0.1589477568645054</v>
       </c>
       <c r="B15">
-        <v>-0.5768350344430734</v>
+        <v>0.4769451480978233</v>
       </c>
       <c r="C15">
-        <v>-0.03203007748634272</v>
+        <v>0.2845613302130054</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.6479296341273517</v>
+        <v>-0.5960927423111075</v>
       </c>
       <c r="B16">
-        <v>-0.3201291151518011</v>
+        <v>0.3556141423480044</v>
       </c>
       <c r="C16">
-        <v>0.1466495891798923</v>
+        <v>0.9148281629826129</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.662828464875537</v>
+        <v>-0.5055332822802249</v>
       </c>
       <c r="B17">
-        <v>0.1639153548264906</v>
+        <v>0.04931456003622108</v>
       </c>
       <c r="C17">
-        <v>2.040936738010098</v>
+        <v>-1.760749578427075</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.178630866458927</v>
+        <v>-1.24686778894793</v>
       </c>
       <c r="B18">
-        <v>0.5049568620498133</v>
+        <v>-0.6617845769570613</v>
       </c>
       <c r="C18">
-        <v>-0.7497003630858255</v>
+        <v>-0.1377094659801004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.4171224905429451</v>
+        <v>-0.5382744516188108</v>
       </c>
       <c r="B19">
-        <v>-1.743899912569171</v>
+        <v>1.641342090260592</v>
       </c>
       <c r="C19">
-        <v>-0.09717536295491162</v>
+        <v>0.06659844130762547</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.1910258868582589</v>
+        <v>0.006276417060545032</v>
       </c>
       <c r="B20">
-        <v>-0.5203949204791548</v>
+        <v>0.3655339710834815</v>
       </c>
       <c r="C20">
-        <v>-1.503228372887206</v>
+        <v>1.267962049533198</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.05435060831210356</v>
+        <v>-0.1726840402698485</v>
       </c>
       <c r="B21">
-        <v>-1.949361162546371</v>
+        <v>1.856901476483745</v>
       </c>
       <c r="C21">
-        <v>-0.4403280660451408</v>
+        <v>0.3343217425463853</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-1.068834047115109</v>
+        <v>-0.9926685529268005</v>
       </c>
       <c r="B22">
-        <v>-0.4999850633858922</v>
+        <v>0.8968992849970743</v>
       </c>
       <c r="C22">
-        <v>1.001272661212371</v>
+        <v>-0.5327795050241764</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.827921730232656</v>
+        <v>-0.9797771523489359</v>
       </c>
       <c r="B23">
-        <v>-0.9578399964839613</v>
+        <v>0.7670357875484117</v>
       </c>
       <c r="C23">
-        <v>-1.081840486407378</v>
+        <v>1.259153526825127</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.8353699779695962</v>
+        <v>-0.9460965090804777</v>
       </c>
       <c r="B24">
-        <v>-1.181521727669696</v>
+        <v>1.006927482570393</v>
       </c>
       <c r="C24">
-        <v>-2.160230809788248</v>
+        <v>2.149326747272837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.187878961285721</v>
+        <v>-1.224459202091396</v>
       </c>
       <c r="B25">
-        <v>-0.949331206697732</v>
+        <v>0.8316027329935032</v>
       </c>
       <c r="C25">
-        <v>-0.02630824528467048</v>
+        <v>-0.8407073827017256</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.845612722755859</v>
+        <v>0.8857294616392043</v>
       </c>
       <c r="B26">
-        <v>-0.2097920387280389</v>
+        <v>0.2784349250387907</v>
       </c>
       <c r="C26">
-        <v>1.268841007263381</v>
+        <v>-1.172448170121514</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.107004563213501</v>
+        <v>-1.010965344753171</v>
       </c>
       <c r="B27">
-        <v>0.487873527290315</v>
+        <v>-0.2901410766380569</v>
       </c>
       <c r="C27">
-        <v>0.8529744202460225</v>
+        <v>0.6209375637707361</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.4153727414584047</v>
+        <v>-0.2175661064090194</v>
       </c>
       <c r="B28">
-        <v>1.70034953148553</v>
+        <v>-1.696463213331942</v>
       </c>
       <c r="C28">
-        <v>0.9357748593508254</v>
+        <v>0.03649569928965594</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.8163708067172339</v>
+        <v>-0.7113312864612569</v>
       </c>
       <c r="B29">
-        <v>-0.9677300731733264</v>
+        <v>0.9202174177050835</v>
       </c>
       <c r="C29">
-        <v>0.4651491046759726</v>
+        <v>-1.155933475609572</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.7944757538927031</v>
+        <v>0.8445824578528006</v>
       </c>
       <c r="B30">
-        <v>1.147747720050297</v>
+        <v>-1.151605199344244</v>
       </c>
       <c r="C30">
-        <v>-0.3443422749489937</v>
+        <v>0.08857585718356596</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.1910248836937491</v>
+        <v>-0.1004265702790786</v>
       </c>
       <c r="B31">
-        <v>1.51740214547289</v>
+        <v>-1.528834423699343</v>
       </c>
       <c r="C31">
-        <v>0.1212452859229332</v>
+        <v>-0.8399927761186194</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.149474603374194</v>
+        <v>2.16754746440726</v>
       </c>
       <c r="B32">
-        <v>0.2665595751381875</v>
+        <v>-0.1810925813670858</v>
       </c>
       <c r="C32">
-        <v>0.2797554763716691</v>
+        <v>-0.1404043762599092</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.560386476711853</v>
+        <v>-1.447844701752252</v>
       </c>
       <c r="B33">
-        <v>0.1998579019867776</v>
+        <v>-0.1054841411481387</v>
       </c>
       <c r="C33">
-        <v>1.446800880657684</v>
+        <v>-1.332321227897889</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.5200478505091798</v>
+        <v>-0.4967373617880271</v>
       </c>
       <c r="B34">
-        <v>-0.03390890826812017</v>
+        <v>0.0818876995091934</v>
       </c>
       <c r="C34">
-        <v>-1.045002927922084</v>
+        <v>2.562416703457816</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.315801056956014</v>
+        <v>1.294208509245207</v>
       </c>
       <c r="B35">
-        <v>-1.166508424265716</v>
+        <v>1.169214024091385</v>
       </c>
       <c r="C35">
-        <v>0.2204512710461508</v>
+        <v>-0.03227685659515915</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.5463049633252726</v>
+        <v>-0.6651536884063773</v>
       </c>
       <c r="B36">
-        <v>0.5111339549854892</v>
+        <v>-0.6780216257872284</v>
       </c>
       <c r="C36">
-        <v>-1.176112994290968</v>
+        <v>0.2743833676614589</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.7720826386333383</v>
+        <v>-0.8959318641682912</v>
       </c>
       <c r="B37">
-        <v>1.080631780978055</v>
+        <v>-1.275697793427533</v>
       </c>
       <c r="C37">
-        <v>-0.616606727621972</v>
+        <v>-0.2772672675482157</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.267083364658819</v>
+        <v>0.2816480452946423</v>
       </c>
       <c r="B38">
-        <v>-1.14358265467838</v>
+        <v>1.140898574494352</v>
       </c>
       <c r="C38">
-        <v>1.233204195046992</v>
+        <v>-1.49629369574422</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.2292605671396147</v>
+        <v>-0.1461016579449068</v>
       </c>
       <c r="B39">
-        <v>0.6575281146397814</v>
+        <v>-0.349263661520769</v>
       </c>
       <c r="C39">
-        <v>0.6645852136210609</v>
+        <v>0.1022374349119992</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.1948104047642175</v>
+        <v>-0.2943418618403441</v>
       </c>
       <c r="B40">
-        <v>-0.6445765033974984</v>
+        <v>0.5930376648110943</v>
       </c>
       <c r="C40">
-        <v>0.2929519947662761</v>
+        <v>-1.077705543739511</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.11167140051333</v>
+        <v>0.06792897688429778</v>
       </c>
       <c r="B41">
-        <v>2.037835731079823</v>
+        <v>-2.159900134688136</v>
       </c>
       <c r="C41">
-        <v>-1.288768541596804</v>
+        <v>1.09177092476824</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.6743369374788303</v>
+        <v>0.6451199267193448</v>
       </c>
       <c r="B42">
-        <v>-1.338454176244598</v>
+        <v>1.272905896138216</v>
       </c>
       <c r="C42">
-        <v>0.1232847208577311</v>
+        <v>-0.1661502601641446</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2.337025190320917</v>
+        <v>2.381141882553833</v>
       </c>
       <c r="B43">
-        <v>0.7888974592781516</v>
+        <v>-0.6241535757353237</v>
       </c>
       <c r="C43">
-        <v>0.9383892718620138</v>
+        <v>-0.7591081464082479</v>
       </c>
     </row>
   </sheetData>
